--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9746499318903353</v>
+        <v>0.9746499318903352</v>
       </c>
       <c r="D2">
-        <v>0.9970930924849117</v>
+        <v>0.9970930924849118</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9776890989616447</v>
+        <v>0.9776890989616446</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>1.035042931822916</v>
       </c>
       <c r="J2">
-        <v>0.9976162304118495</v>
+        <v>0.9976162304118494</v>
       </c>
       <c r="K2">
         <v>1.008593074257061</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9894682667513565</v>
+        <v>0.9894682667513561</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9848432273302298</v>
+        <v>0.9848432273302312</v>
       </c>
       <c r="D3">
-        <v>1.004862029074495</v>
+        <v>1.004862029074497</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9882696755578549</v>
+        <v>0.9882696755578563</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038479209162864</v>
+        <v>1.038479209162865</v>
       </c>
       <c r="J3">
-        <v>1.005755785950938</v>
+        <v>1.00575578595094</v>
       </c>
       <c r="K3">
-        <v>1.015433075039791</v>
+        <v>1.015433075039792</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9990548814600954</v>
+        <v>0.9990548814600968</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9911566663011447</v>
+        <v>0.9911566663011436</v>
       </c>
       <c r="D4">
-        <v>1.009675158563724</v>
+        <v>1.009675158563723</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9948312657541354</v>
+        <v>0.9948312657541339</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04058821894796</v>
+        <v>1.040588218947959</v>
       </c>
       <c r="J4">
-        <v>1.010789322910601</v>
+        <v>1.0107893229106</v>
       </c>
       <c r="K4">
-        <v>1.01965819874262</v>
+        <v>1.019658198742619</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.00499247576126</v>
+        <v>1.004992475761259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9937485931649415</v>
+        <v>0.9937485931649412</v>
       </c>
       <c r="D5">
         <v>1.01165125286909</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9975270239875614</v>
+        <v>0.9975270239875615</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04144932047612</v>
+        <v>1.041449320476121</v>
       </c>
       <c r="J5">
         <v>1.012853823378534</v>
       </c>
       <c r="K5">
-        <v>1.021389936508903</v>
+        <v>1.021389936508902</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
         <v>1.007430035507378</v>
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9941802818494705</v>
+        <v>0.9941802818494695</v>
       </c>
       <c r="D6">
-        <v>1.01198037473455</v>
+        <v>1.011980374734549</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9979761201265009</v>
+        <v>0.9979761201265002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041592456712366</v>
+        <v>1.041592456712365</v>
       </c>
       <c r="J6">
         <v>1.013197550054421</v>
@@ -597,10 +597,10 @@
         <v>1.021678188647448</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.007836008905679</v>
+        <v>1.007836008905678</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9911915377731106</v>
+        <v>0.9911915377731115</v>
       </c>
       <c r="D7">
-        <v>1.009701744524381</v>
+        <v>1.009701744524382</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9948675264409312</v>
+        <v>0.9948675264409321</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040599823015848</v>
+        <v>1.040599823015849</v>
       </c>
       <c r="J7">
-        <v>1.010817106391284</v>
+        <v>1.010817106391285</v>
       </c>
       <c r="K7">
-        <v>1.019681508793197</v>
+        <v>1.019681508793198</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.005025270723039</v>
+        <v>1.00502527072304</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9781567010799022</v>
+        <v>0.9781567010799013</v>
       </c>
       <c r="D8">
-        <v>0.9997654156105056</v>
+        <v>0.999765415610505</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9813273184287195</v>
+        <v>0.9813273184287189</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.036229157387333</v>
       </c>
       <c r="J8">
-        <v>1.00041807926739</v>
+        <v>1.000418079267389</v>
       </c>
       <c r="K8">
-        <v>1.010948565428315</v>
+        <v>1.010948565428314</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9927663080484297</v>
+        <v>0.9927663080484291</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9527410885101678</v>
+        <v>0.9527410885101665</v>
       </c>
       <c r="D9">
-        <v>0.9804131565598447</v>
+        <v>0.9804131565598431</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9549974820859026</v>
+        <v>0.9549974820859013</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027550566792801</v>
+        <v>1.0275505667928</v>
       </c>
       <c r="J9">
-        <v>0.9800806228549949</v>
+        <v>0.9800806228549935</v>
       </c>
       <c r="K9">
-        <v>0.9938322167856432</v>
+        <v>0.9938322167856418</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9688654838076575</v>
+        <v>0.9688654838076559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9336621977331111</v>
+        <v>0.933662197733113</v>
       </c>
       <c r="D10">
-        <v>0.9659203237802069</v>
+        <v>0.9659203237802085</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.9352846897786882</v>
+        <v>0.9352846897786901</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020936152356238</v>
+        <v>1.02093615235624</v>
       </c>
       <c r="J10">
-        <v>0.9647796068695271</v>
+        <v>0.9647796068695289</v>
       </c>
       <c r="K10">
-        <v>0.980933421942359</v>
+        <v>0.9809334219423606</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
-        <v>0.9509297176010619</v>
+        <v>0.9509297176010639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9247476233338376</v>
+        <v>0.9247476233338364</v>
       </c>
       <c r="D11">
-        <v>0.9591624093664589</v>
+        <v>0.9591624093664581</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9260873148347889</v>
+        <v>0.9260873148347877</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.017824265800048</v>
       </c>
       <c r="J11">
-        <v>0.9576244701631768</v>
+        <v>0.9576244701631758</v>
       </c>
       <c r="K11">
-        <v>0.974897864253419</v>
+        <v>0.9748978642534183</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.9425520545463218</v>
+        <v>0.9425520545463205</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9213218028134943</v>
+        <v>0.9213218028134954</v>
       </c>
       <c r="D12">
-        <v>0.9565680631376325</v>
+        <v>0.956568063137633</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9225549193420064</v>
+        <v>0.9225549193420072</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.016625442789179</v>
       </c>
       <c r="J12">
-        <v>0.9548741846278782</v>
+        <v>0.9548741846278791</v>
       </c>
       <c r="K12">
-        <v>0.9725774947533835</v>
+        <v>0.9725774947533842</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.9393331312686017</v>
+        <v>0.9393331312686025</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9220621457425243</v>
+        <v>0.9220621457425254</v>
       </c>
       <c r="D13">
-        <v>0.9571285870649765</v>
+        <v>0.9571285870649774</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9318723593368228</v>
       </c>
       <c r="F13">
-        <v>0.9233181974959858</v>
+        <v>0.9233181974959873</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016884644257385</v>
       </c>
       <c r="J13">
-        <v>0.9554685624240041</v>
+        <v>0.955468562424005</v>
       </c>
       <c r="K13">
-        <v>0.9730789779644319</v>
+        <v>0.9730789779644328</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>0.9400287341759775</v>
+        <v>0.940028734175979</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9244668904976394</v>
+        <v>0.9244668904976383</v>
       </c>
       <c r="D14">
-        <v>0.958949754642186</v>
+        <v>0.9589497546421851</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9257978055711977</v>
+        <v>0.9257978055711971</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017726084538134</v>
+        <v>1.017726084538133</v>
       </c>
       <c r="J14">
-        <v>0.9573991053757355</v>
+        <v>0.9573991053757346</v>
       </c>
       <c r="K14">
-        <v>0.9747077355025335</v>
+        <v>0.9747077355025328</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9422882637928077</v>
+        <v>0.9422882637928072</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9259327930527883</v>
+        <v>0.9259327930527897</v>
       </c>
       <c r="D15">
-        <v>0.9600602859407211</v>
+        <v>0.9600602859407222</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9273096215240529</v>
+        <v>0.9273096215240538</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018238640452083</v>
+        <v>1.018238640452084</v>
       </c>
       <c r="J15">
-        <v>0.9585758697840079</v>
+        <v>0.9585758697840091</v>
       </c>
       <c r="K15">
-        <v>0.9757004951349644</v>
+        <v>0.9757004951349655</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.943665723650814</v>
+        <v>0.9436657236508151</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9342387547114951</v>
+        <v>0.9342387547114972</v>
       </c>
       <c r="D16">
-        <v>0.9663577266796479</v>
+        <v>0.9663577266796498</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9358798176331498</v>
+        <v>0.9358798176331521</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021137001392649</v>
+        <v>1.02113700139265</v>
       </c>
       <c r="J16">
-        <v>0.9652422734075542</v>
+        <v>0.9652422734075561</v>
       </c>
       <c r="K16">
-        <v>0.9813236282007716</v>
+        <v>0.9813236282007736</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9514716177735547</v>
+        <v>0.9514716177735567</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9392635820870374</v>
+        <v>0.9392635820870371</v>
       </c>
       <c r="D17">
-        <v>0.9701713853185224</v>
+        <v>0.9701713853185221</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9410679877550695</v>
+        <v>0.9410679877550693</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022885109851108</v>
+        <v>1.022885109851107</v>
       </c>
       <c r="J17">
-        <v>0.969273904617632</v>
+        <v>0.9692739046176315</v>
       </c>
       <c r="K17">
-        <v>0.9847234443665959</v>
+        <v>0.9847234443665953</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9561947261421135</v>
+        <v>0.9561947261421133</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,10 +1029,10 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9421327375079542</v>
+        <v>0.9421327375079546</v>
       </c>
       <c r="D18">
-        <v>0.9723501990210223</v>
+        <v>0.9723501990210225</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
@@ -1050,13 +1050,13 @@
         <v>0.9715753992127015</v>
       </c>
       <c r="K18">
-        <v>0.9866639053864167</v>
+        <v>0.9866639053864168</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9588918475431727</v>
+        <v>0.9588918475431728</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9431010082090815</v>
+        <v>0.9431010082090819</v>
       </c>
       <c r="D19">
-        <v>0.9730856892554138</v>
+        <v>0.9730856892554141</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680091</v>
       </c>
       <c r="F19">
-        <v>0.9450320038638859</v>
+        <v>0.9450320038638861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024217134843901</v>
+        <v>1.024217134843902</v>
       </c>
       <c r="J19">
-        <v>0.9723519981480301</v>
+        <v>0.9723519981480303</v>
       </c>
       <c r="K19">
-        <v>0.9873186159215797</v>
+        <v>0.98731861592158</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493812711</v>
       </c>
       <c r="M19">
-        <v>0.9598020989316464</v>
+        <v>0.9598020989316465</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9387309577213108</v>
+        <v>0.9387309577213121</v>
       </c>
       <c r="D20">
-        <v>0.9697670109412712</v>
+        <v>0.9697670109412722</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9405179207929633</v>
+        <v>0.9405179207929644</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022700017915857</v>
       </c>
       <c r="J20">
-        <v>0.9688466133178627</v>
+        <v>0.9688466133178638</v>
       </c>
       <c r="K20">
-        <v>0.9843631520624933</v>
+        <v>0.9843631520624943</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9556940569487438</v>
+        <v>0.955694056948745</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.9237620678788317</v>
       </c>
       <c r="D21">
-        <v>0.9584158977391019</v>
+        <v>0.958415897739102</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9250709824220824</v>
+        <v>0.9250709824220827</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017479539351922</v>
       </c>
       <c r="J21">
-        <v>0.9568332839552951</v>
+        <v>0.9568332839552953</v>
       </c>
       <c r="K21">
-        <v>0.9742303745779869</v>
+        <v>0.9742303745779871</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9416259864624492</v>
+        <v>0.9416259864624495</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,7 +1181,7 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9136762910568597</v>
+        <v>0.9136762910568593</v>
       </c>
       <c r="D22">
         <v>0.9507839608369006</v>
@@ -1190,7 +1190,7 @@
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9146755877856103</v>
+        <v>0.9146755877856101</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.9487355040437999</v>
       </c>
       <c r="K22">
-        <v>0.967397782122051</v>
+        <v>0.9673977821220507</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9321506029367962</v>
+        <v>0.9321506029367961</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.91909351302863</v>
+        <v>0.9190935130286301</v>
       </c>
       <c r="D23">
-        <v>0.9548814415077064</v>
+        <v>0.9548814415077067</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.920257915486283</v>
+        <v>0.9202579154862829</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>1.015844887913417</v>
       </c>
       <c r="J23">
-        <v>0.9530851562995949</v>
+        <v>0.953085156299595</v>
       </c>
       <c r="K23">
         <v>0.9710680212476864</v>
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9389718173476813</v>
+        <v>0.9389718173476838</v>
       </c>
       <c r="D24">
-        <v>0.9699498704702352</v>
+        <v>0.9699498704702368</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9407666643691213</v>
+        <v>0.9407666643691234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022783725079799</v>
+        <v>1.0227837250798</v>
       </c>
       <c r="J24">
-        <v>0.9690398417025926</v>
+        <v>0.9690398417025948</v>
       </c>
       <c r="K24">
-        <v>0.9845260834830601</v>
+        <v>0.9845260834830619</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.953371659644245</v>
       </c>
       <c r="M24">
-        <v>0.9559204652754131</v>
+        <v>0.955920465275415</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9596462749171882</v>
+        <v>0.959646274917191</v>
       </c>
       <c r="D25">
-        <v>0.985666781159843</v>
+        <v>0.9856667811598455</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.9621426023526946</v>
+        <v>0.9621426023526973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029925665226246</v>
+        <v>1.029925665226247</v>
       </c>
       <c r="J25">
-        <v>0.9856124349929141</v>
+        <v>0.9856124349929168</v>
       </c>
       <c r="K25">
-        <v>0.9984917530923745</v>
+        <v>0.9984917530923768</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.975358482777409</v>
+        <v>0.9753584827774117</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9746499318903352</v>
+        <v>0.9746499318903353</v>
       </c>
       <c r="D2">
-        <v>0.9970930924849118</v>
+        <v>0.9970930924849117</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9776890989616446</v>
+        <v>0.9776890989616447</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>1.035042931822916</v>
       </c>
       <c r="J2">
-        <v>0.9976162304118494</v>
+        <v>0.9976162304118495</v>
       </c>
       <c r="K2">
         <v>1.008593074257061</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9894682667513561</v>
+        <v>0.9894682667513565</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9848432273302312</v>
+        <v>0.9848432273302298</v>
       </c>
       <c r="D3">
-        <v>1.004862029074497</v>
+        <v>1.004862029074495</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9882696755578563</v>
+        <v>0.9882696755578549</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038479209162865</v>
+        <v>1.038479209162864</v>
       </c>
       <c r="J3">
-        <v>1.00575578595094</v>
+        <v>1.005755785950938</v>
       </c>
       <c r="K3">
-        <v>1.015433075039792</v>
+        <v>1.015433075039791</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9990548814600968</v>
+        <v>0.9990548814600954</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9911566663011436</v>
+        <v>0.9911566663011447</v>
       </c>
       <c r="D4">
-        <v>1.009675158563723</v>
+        <v>1.009675158563724</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9948312657541339</v>
+        <v>0.9948312657541354</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040588218947959</v>
+        <v>1.04058821894796</v>
       </c>
       <c r="J4">
-        <v>1.0107893229106</v>
+        <v>1.010789322910601</v>
       </c>
       <c r="K4">
-        <v>1.019658198742619</v>
+        <v>1.01965819874262</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.004992475761259</v>
+        <v>1.00499247576126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9937485931649412</v>
+        <v>0.9937485931649415</v>
       </c>
       <c r="D5">
         <v>1.01165125286909</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9975270239875615</v>
+        <v>0.9975270239875614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041449320476121</v>
+        <v>1.04144932047612</v>
       </c>
       <c r="J5">
         <v>1.012853823378534</v>
       </c>
       <c r="K5">
-        <v>1.021389936508902</v>
+        <v>1.021389936508903</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
         <v>1.007430035507378</v>
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9941802818494695</v>
+        <v>0.9941802818494705</v>
       </c>
       <c r="D6">
-        <v>1.011980374734549</v>
+        <v>1.01198037473455</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9979761201265002</v>
+        <v>0.9979761201265009</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041592456712365</v>
+        <v>1.041592456712366</v>
       </c>
       <c r="J6">
         <v>1.013197550054421</v>
@@ -597,10 +597,10 @@
         <v>1.021678188647448</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.007836008905678</v>
+        <v>1.007836008905679</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9911915377731115</v>
+        <v>0.9911915377731106</v>
       </c>
       <c r="D7">
-        <v>1.009701744524382</v>
+        <v>1.009701744524381</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9948675264409321</v>
+        <v>0.9948675264409312</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040599823015849</v>
+        <v>1.040599823015848</v>
       </c>
       <c r="J7">
-        <v>1.010817106391285</v>
+        <v>1.010817106391284</v>
       </c>
       <c r="K7">
-        <v>1.019681508793198</v>
+        <v>1.019681508793197</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.00502527072304</v>
+        <v>1.005025270723039</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9781567010799013</v>
+        <v>0.9781567010799022</v>
       </c>
       <c r="D8">
-        <v>0.999765415610505</v>
+        <v>0.9997654156105056</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9813273184287189</v>
+        <v>0.9813273184287195</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.036229157387333</v>
       </c>
       <c r="J8">
-        <v>1.000418079267389</v>
+        <v>1.00041807926739</v>
       </c>
       <c r="K8">
-        <v>1.010948565428314</v>
+        <v>1.010948565428315</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9927663080484291</v>
+        <v>0.9927663080484297</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9527410885101665</v>
+        <v>0.9527410885101678</v>
       </c>
       <c r="D9">
-        <v>0.9804131565598431</v>
+        <v>0.9804131565598447</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9549974820859013</v>
+        <v>0.9549974820859026</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0275505667928</v>
+        <v>1.027550566792801</v>
       </c>
       <c r="J9">
-        <v>0.9800806228549935</v>
+        <v>0.9800806228549949</v>
       </c>
       <c r="K9">
-        <v>0.9938322167856418</v>
+        <v>0.9938322167856432</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9688654838076559</v>
+        <v>0.9688654838076575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.933662197733113</v>
+        <v>0.9336621977331111</v>
       </c>
       <c r="D10">
-        <v>0.9659203237802085</v>
+        <v>0.9659203237802069</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.9352846897786901</v>
+        <v>0.9352846897786882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02093615235624</v>
+        <v>1.020936152356238</v>
       </c>
       <c r="J10">
-        <v>0.9647796068695289</v>
+        <v>0.9647796068695271</v>
       </c>
       <c r="K10">
-        <v>0.9809334219423606</v>
+        <v>0.980933421942359</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9509297176010639</v>
+        <v>0.9509297176010619</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9247476233338364</v>
+        <v>0.9247476233338376</v>
       </c>
       <c r="D11">
-        <v>0.9591624093664581</v>
+        <v>0.9591624093664589</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9260873148347877</v>
+        <v>0.9260873148347889</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.017824265800048</v>
       </c>
       <c r="J11">
-        <v>0.9576244701631758</v>
+        <v>0.9576244701631768</v>
       </c>
       <c r="K11">
-        <v>0.9748978642534183</v>
+        <v>0.974897864253419</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9425520545463205</v>
+        <v>0.9425520545463218</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9213218028134954</v>
+        <v>0.9213218028134943</v>
       </c>
       <c r="D12">
-        <v>0.956568063137633</v>
+        <v>0.9565680631376325</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9225549193420072</v>
+        <v>0.9225549193420064</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.016625442789179</v>
       </c>
       <c r="J12">
-        <v>0.9548741846278791</v>
+        <v>0.9548741846278782</v>
       </c>
       <c r="K12">
-        <v>0.9725774947533842</v>
+        <v>0.9725774947533835</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9393331312686025</v>
+        <v>0.9393331312686017</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9220621457425254</v>
+        <v>0.9220621457425243</v>
       </c>
       <c r="D13">
-        <v>0.9571285870649774</v>
+        <v>0.9571285870649765</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9233181974959873</v>
+        <v>0.9233181974959858</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016884644257385</v>
       </c>
       <c r="J13">
-        <v>0.955468562424005</v>
+        <v>0.9554685624240041</v>
       </c>
       <c r="K13">
-        <v>0.9730789779644328</v>
+        <v>0.9730789779644319</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.940028734175979</v>
+        <v>0.9400287341759775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9244668904976383</v>
+        <v>0.9244668904976394</v>
       </c>
       <c r="D14">
-        <v>0.9589497546421851</v>
+        <v>0.958949754642186</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9257978055711971</v>
+        <v>0.9257978055711977</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017726084538133</v>
+        <v>1.017726084538134</v>
       </c>
       <c r="J14">
-        <v>0.9573991053757346</v>
+        <v>0.9573991053757355</v>
       </c>
       <c r="K14">
-        <v>0.9747077355025328</v>
+        <v>0.9747077355025335</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.9422882637928072</v>
+        <v>0.9422882637928077</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9259327930527897</v>
+        <v>0.9259327930527883</v>
       </c>
       <c r="D15">
-        <v>0.9600602859407222</v>
+        <v>0.9600602859407211</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9273096215240538</v>
+        <v>0.9273096215240529</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018238640452084</v>
+        <v>1.018238640452083</v>
       </c>
       <c r="J15">
-        <v>0.9585758697840091</v>
+        <v>0.9585758697840079</v>
       </c>
       <c r="K15">
-        <v>0.9757004951349655</v>
+        <v>0.9757004951349644</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9436657236508151</v>
+        <v>0.943665723650814</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9342387547114972</v>
+        <v>0.9342387547114951</v>
       </c>
       <c r="D16">
-        <v>0.9663577266796498</v>
+        <v>0.9663577266796479</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9358798176331521</v>
+        <v>0.9358798176331498</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02113700139265</v>
+        <v>1.021137001392649</v>
       </c>
       <c r="J16">
-        <v>0.9652422734075561</v>
+        <v>0.9652422734075542</v>
       </c>
       <c r="K16">
-        <v>0.9813236282007736</v>
+        <v>0.9813236282007716</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9514716177735567</v>
+        <v>0.9514716177735547</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9392635820870371</v>
+        <v>0.9392635820870374</v>
       </c>
       <c r="D17">
-        <v>0.9701713853185221</v>
+        <v>0.9701713853185224</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9410679877550693</v>
+        <v>0.9410679877550695</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022885109851107</v>
+        <v>1.022885109851108</v>
       </c>
       <c r="J17">
-        <v>0.9692739046176315</v>
+        <v>0.969273904617632</v>
       </c>
       <c r="K17">
-        <v>0.9847234443665953</v>
+        <v>0.9847234443665959</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9561947261421133</v>
+        <v>0.9561947261421135</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,10 +1029,10 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9421327375079546</v>
+        <v>0.9421327375079542</v>
       </c>
       <c r="D18">
-        <v>0.9723501990210225</v>
+        <v>0.9723501990210223</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
@@ -1050,13 +1050,13 @@
         <v>0.9715753992127015</v>
       </c>
       <c r="K18">
-        <v>0.9866639053864168</v>
+        <v>0.9866639053864167</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9588918475431728</v>
+        <v>0.9588918475431727</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9431010082090819</v>
+        <v>0.9431010082090815</v>
       </c>
       <c r="D19">
-        <v>0.9730856892554141</v>
+        <v>0.9730856892554138</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9450320038638861</v>
+        <v>0.9450320038638859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024217134843902</v>
+        <v>1.024217134843901</v>
       </c>
       <c r="J19">
-        <v>0.9723519981480303</v>
+        <v>0.9723519981480301</v>
       </c>
       <c r="K19">
-        <v>0.98731861592158</v>
+        <v>0.9873186159215797</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9598020989316465</v>
+        <v>0.9598020989316464</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9387309577213121</v>
+        <v>0.9387309577213108</v>
       </c>
       <c r="D20">
-        <v>0.9697670109412722</v>
+        <v>0.9697670109412712</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9405179207929644</v>
+        <v>0.9405179207929633</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022700017915857</v>
       </c>
       <c r="J20">
-        <v>0.9688466133178638</v>
+        <v>0.9688466133178627</v>
       </c>
       <c r="K20">
-        <v>0.9843631520624943</v>
+        <v>0.9843631520624933</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.955694056948745</v>
+        <v>0.9556940569487438</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.9237620678788317</v>
       </c>
       <c r="D21">
-        <v>0.958415897739102</v>
+        <v>0.9584158977391019</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9250709824220827</v>
+        <v>0.9250709824220824</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017479539351922</v>
       </c>
       <c r="J21">
-        <v>0.9568332839552953</v>
+        <v>0.9568332839552951</v>
       </c>
       <c r="K21">
-        <v>0.9742303745779871</v>
+        <v>0.9742303745779869</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9416259864624495</v>
+        <v>0.9416259864624492</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,7 +1181,7 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9136762910568593</v>
+        <v>0.9136762910568597</v>
       </c>
       <c r="D22">
         <v>0.9507839608369006</v>
@@ -1190,7 +1190,7 @@
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9146755877856101</v>
+        <v>0.9146755877856103</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.9487355040437999</v>
       </c>
       <c r="K22">
-        <v>0.9673977821220507</v>
+        <v>0.967397782122051</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9321506029367961</v>
+        <v>0.9321506029367962</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9190935130286301</v>
+        <v>0.91909351302863</v>
       </c>
       <c r="D23">
-        <v>0.9548814415077067</v>
+        <v>0.9548814415077064</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9202579154862829</v>
+        <v>0.920257915486283</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>1.015844887913417</v>
       </c>
       <c r="J23">
-        <v>0.953085156299595</v>
+        <v>0.9530851562995949</v>
       </c>
       <c r="K23">
         <v>0.9710680212476864</v>
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9389718173476838</v>
+        <v>0.9389718173476813</v>
       </c>
       <c r="D24">
-        <v>0.9699498704702368</v>
+        <v>0.9699498704702352</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9407666643691234</v>
+        <v>0.9407666643691213</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0227837250798</v>
+        <v>1.022783725079799</v>
       </c>
       <c r="J24">
-        <v>0.9690398417025948</v>
+        <v>0.9690398417025926</v>
       </c>
       <c r="K24">
-        <v>0.9845260834830619</v>
+        <v>0.9845260834830601</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.955920465275415</v>
+        <v>0.9559204652754131</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.959646274917191</v>
+        <v>0.9596462749171882</v>
       </c>
       <c r="D25">
-        <v>0.9856667811598455</v>
+        <v>0.985666781159843</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9621426023526973</v>
+        <v>0.9621426023526946</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029925665226247</v>
+        <v>1.029925665226246</v>
       </c>
       <c r="J25">
-        <v>0.9856124349929168</v>
+        <v>0.9856124349929141</v>
       </c>
       <c r="K25">
-        <v>0.9984917530923768</v>
+        <v>0.9984917530923745</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9753584827774117</v>
+        <v>0.975358482777409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9746499318903353</v>
+        <v>0.9779808289623353</v>
       </c>
       <c r="D2">
-        <v>0.9970930924849117</v>
+        <v>0.9996299200135447</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9776890989616447</v>
+        <v>0.9807563634341128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035042931822916</v>
+        <v>1.036329736415952</v>
       </c>
       <c r="J2">
-        <v>0.9976162304118495</v>
+        <v>1.000840685173705</v>
       </c>
       <c r="K2">
-        <v>1.008593074257061</v>
+        <v>1.01109441304693</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9894682667513565</v>
+        <v>0.9924904663798406</v>
+      </c>
+      <c r="N2">
+        <v>1.002261993744683</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9848432273302298</v>
+        <v>0.9881360543106376</v>
       </c>
       <c r="D3">
-        <v>1.004862029074495</v>
+        <v>1.007373110894791</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9882696755578549</v>
+        <v>0.9912965776972433</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038479209162864</v>
+        <v>1.039754600168896</v>
       </c>
       <c r="J3">
-        <v>1.005755785950938</v>
+        <v>1.008955451891595</v>
       </c>
       <c r="K3">
-        <v>1.015433075039791</v>
+        <v>1.017912512686996</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9990548814600954</v>
+        <v>1.002042045177533</v>
+      </c>
+      <c r="N3">
+        <v>1.010388284362089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9911566663011447</v>
+        <v>0.9944279661777121</v>
       </c>
       <c r="D4">
-        <v>1.009675158563724</v>
+        <v>1.012171762413488</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9948312657541354</v>
+        <v>0.9978352151584264</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04058821894796</v>
+        <v>1.041857298918095</v>
       </c>
       <c r="J4">
-        <v>1.010789322910601</v>
+        <v>1.013975287153587</v>
       </c>
       <c r="K4">
-        <v>1.01965819874262</v>
+        <v>1.02212547147976</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.00499247576126</v>
+        <v>1.007959837635359</v>
+      </c>
+      <c r="N4">
+        <v>1.015415248365937</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9937485931649415</v>
+        <v>0.9970114927996936</v>
       </c>
       <c r="D5">
-        <v>1.01165125286909</v>
+        <v>1.01414222753728</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9975270239875614</v>
+        <v>1.000521985959959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04144932047612</v>
+        <v>1.042715973201094</v>
       </c>
       <c r="J5">
-        <v>1.012853823378534</v>
+        <v>1.016034516143301</v>
       </c>
       <c r="K5">
-        <v>1.021389936508903</v>
+        <v>1.02385251567449</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.007430035507378</v>
+        <v>1.010389672995724</v>
+      </c>
+      <c r="N5">
+        <v>1.017477401697012</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9941802818494705</v>
+        <v>0.9974418067349273</v>
       </c>
       <c r="D6">
-        <v>1.01198037473455</v>
+        <v>1.014470429393067</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9979761201265009</v>
+        <v>1.000969609427207</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041592456712366</v>
+        <v>1.042858714337202</v>
       </c>
       <c r="J6">
-        <v>1.013197550054421</v>
+        <v>1.01637738455046</v>
       </c>
       <c r="K6">
-        <v>1.021678188647448</v>
+        <v>1.024140002868114</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.007836008905679</v>
+        <v>1.010794382418209</v>
+      </c>
+      <c r="N6">
+        <v>1.017820757016637</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9911915377731106</v>
+        <v>0.9944627229635035</v>
       </c>
       <c r="D7">
-        <v>1.009701744524381</v>
+        <v>1.012198271436456</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9948675264409312</v>
+        <v>0.9978713532672344</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040599823015848</v>
+        <v>1.041868869702364</v>
       </c>
       <c r="J7">
-        <v>1.010817106391284</v>
+        <v>1.014002998360314</v>
       </c>
       <c r="K7">
-        <v>1.019681508793197</v>
+        <v>1.022148717232938</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.005025270723039</v>
+        <v>1.00799252712713</v>
+      </c>
+      <c r="N7">
+        <v>1.015442998925755</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9781567010799022</v>
+        <v>0.9814740263624822</v>
       </c>
       <c r="D8">
-        <v>0.9997654156105056</v>
+        <v>1.002293047506876</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9813273184287195</v>
+        <v>0.9843802234277945</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036229157387333</v>
+        <v>1.037511861449265</v>
       </c>
       <c r="J8">
-        <v>1.00041807926739</v>
+        <v>1.003633625041926</v>
       </c>
       <c r="K8">
-        <v>1.010948565428315</v>
+        <v>1.013442047340234</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9927663080484297</v>
+        <v>0.9957760156172591</v>
+      </c>
+      <c r="N8">
+        <v>1.005058899907872</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9527410885101678</v>
+        <v>0.9561689624821251</v>
       </c>
       <c r="D9">
-        <v>0.9804131565598447</v>
+        <v>0.9830160593812431</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9549974820859026</v>
+        <v>0.9581666472185502</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027550566792801</v>
+        <v>1.028867378586171</v>
       </c>
       <c r="J9">
-        <v>0.9800806228549949</v>
+        <v>0.9833704598586832</v>
       </c>
       <c r="K9">
-        <v>0.9938322167856432</v>
+        <v>0.9963908335797466</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9688654838076575</v>
+        <v>0.9719769784918638</v>
+      </c>
+      <c r="N9">
+        <v>0.9847669587058511</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9336621977331111</v>
+        <v>0.9371938833112078</v>
       </c>
       <c r="D10">
-        <v>0.9659203237802069</v>
+        <v>0.968594354275378</v>
       </c>
       <c r="E10">
         <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.9352846897786882</v>
+        <v>0.9385620073312831</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020936152356238</v>
+        <v>1.022285932383175</v>
       </c>
       <c r="J10">
-        <v>0.9647796068695271</v>
+        <v>0.9681417227651675</v>
       </c>
       <c r="K10">
-        <v>0.980933421942359</v>
+        <v>0.9835547836712129</v>
       </c>
       <c r="L10">
         <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9509297176010619</v>
+        <v>0.9541368215760045</v>
+      </c>
+      <c r="N10">
+        <v>0.9695165950589019</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9247476233338376</v>
+        <v>0.9283350009483505</v>
       </c>
       <c r="D11">
-        <v>0.9591624093664589</v>
+        <v>0.9618746794044825</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9260873148347889</v>
+        <v>0.9294223889964669</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017824265800048</v>
+        <v>1.019191945161924</v>
       </c>
       <c r="J11">
-        <v>0.9576244701631768</v>
+        <v>0.9610260185569784</v>
       </c>
       <c r="K11">
-        <v>0.974897864253419</v>
+        <v>0.9775532706969681</v>
       </c>
       <c r="L11">
         <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9425520545463218</v>
+        <v>0.9458104488523827</v>
+      </c>
+      <c r="N11">
+        <v>0.9623907857345544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9213218028134943</v>
+        <v>0.9249319330511991</v>
       </c>
       <c r="D12">
-        <v>0.9565680631376325</v>
+        <v>0.9592959653894731</v>
       </c>
       <c r="E12">
         <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9225549193420064</v>
+        <v>0.9259135480406505</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016625442789179</v>
+        <v>1.018000465709919</v>
       </c>
       <c r="J12">
-        <v>0.9548741846278782</v>
+        <v>0.9582919471717485</v>
       </c>
       <c r="K12">
-        <v>0.9725774947533835</v>
+        <v>0.9752468682312706</v>
       </c>
       <c r="L12">
         <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9393331312686017</v>
+        <v>0.9426124790080203</v>
+      </c>
+      <c r="N12">
+        <v>0.9596528316543551</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9220621457425243</v>
+        <v>0.9256672928615401</v>
       </c>
       <c r="D13">
-        <v>0.9571285870649765</v>
+        <v>0.9598530652728218</v>
       </c>
       <c r="E13">
         <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9233181974959858</v>
+        <v>0.9266716693320025</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016884644257385</v>
+        <v>1.018258057482862</v>
       </c>
       <c r="J13">
-        <v>0.9554685624240041</v>
+        <v>0.9588827691105237</v>
       </c>
       <c r="K13">
-        <v>0.9730789779644319</v>
+        <v>0.9757452898698188</v>
       </c>
       <c r="L13">
         <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9400287341759775</v>
+        <v>0.9433034928943156</v>
+      </c>
+      <c r="N13">
+        <v>0.9602444926280518</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9244668904976394</v>
+        <v>0.9280561034872076</v>
       </c>
       <c r="D14">
-        <v>0.958949754642186</v>
+        <v>0.96166328550083</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9257978055711977</v>
+        <v>0.929134780628326</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017726084538134</v>
+        <v>1.019094355674618</v>
       </c>
       <c r="J14">
-        <v>0.9573991053757355</v>
+        <v>0.9608019596129745</v>
       </c>
       <c r="K14">
-        <v>0.9747077355025335</v>
+        <v>0.9773642674618578</v>
       </c>
       <c r="L14">
         <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.9422882637928077</v>
+        <v>0.9455483483614278</v>
+      </c>
+      <c r="N14">
+        <v>0.9621664086011501</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9259327930527883</v>
+        <v>0.929512478628168</v>
       </c>
       <c r="D15">
-        <v>0.9600602859407211</v>
+        <v>0.9627672722574981</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9273096215240529</v>
+        <v>0.9306367274038443</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018238640452083</v>
+        <v>1.019603840902627</v>
       </c>
       <c r="J15">
-        <v>0.9585758697840079</v>
+        <v>0.9619719495398757</v>
       </c>
       <c r="K15">
-        <v>0.9757004951349644</v>
+        <v>0.9783511868515535</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.943665723650814</v>
+        <v>0.9469170340431867</v>
+      </c>
+      <c r="N15">
+        <v>0.963338060047947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9342387547114951</v>
+        <v>0.9377670055555719</v>
       </c>
       <c r="D16">
-        <v>0.9663577266796479</v>
+        <v>0.9690294001796924</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9358798176331498</v>
+        <v>0.9391535678934967</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021137001392649</v>
+        <v>1.022485681516184</v>
       </c>
       <c r="J16">
-        <v>0.9652422734075542</v>
+        <v>0.9686019704213835</v>
       </c>
       <c r="K16">
-        <v>0.9813236282007716</v>
+        <v>0.9839428977024364</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9514716177735547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9546755584040478</v>
+      </c>
+      <c r="N16">
+        <v>0.9699774963195809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9392635820870374</v>
+        <v>0.9427627174815901</v>
       </c>
       <c r="D17">
-        <v>0.9701713853185224</v>
+        <v>0.9728230872508472</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9410679877550695</v>
+        <v>0.9443114715548216</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022885109851108</v>
+        <v>1.024224488104638</v>
       </c>
       <c r="J17">
-        <v>0.969273904617632</v>
+        <v>0.9726131653937902</v>
       </c>
       <c r="K17">
-        <v>0.9847234443665959</v>
+        <v>0.9873250180510533</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9561947261421135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9593718516136375</v>
+      </c>
+      <c r="N17">
+        <v>0.9739943876489389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9421327375079542</v>
+        <v>0.9456158893156883</v>
       </c>
       <c r="D18">
-        <v>0.9723501990210223</v>
+        <v>0.9749909441649144</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.944031637835215</v>
+        <v>0.9472584839342226</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023881290739566</v>
+        <v>1.025215580586979</v>
       </c>
       <c r="J18">
-        <v>0.9715753992127015</v>
+        <v>0.9749034962931958</v>
       </c>
       <c r="K18">
-        <v>0.9866639053864167</v>
+        <v>0.9892557969866449</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9588918475431727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9620542521471759</v>
+      </c>
+      <c r="N18">
+        <v>0.9762879710809262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9431010082090815</v>
+        <v>0.9465788681832843</v>
       </c>
       <c r="D19">
-        <v>0.9730856892554138</v>
+        <v>0.9757228080931651</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9450320038638859</v>
+        <v>0.9482533378375758</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024217134843901</v>
+        <v>1.025549743119416</v>
       </c>
       <c r="J19">
-        <v>0.9723519981480301</v>
+        <v>0.9756764084017087</v>
       </c>
       <c r="K19">
-        <v>0.9873186159215797</v>
+        <v>0.9899073074753052</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9598020989316464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9629596297665827</v>
+      </c>
+      <c r="N19">
+        <v>0.9770619808132872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9387309577213108</v>
+        <v>0.9422331108301616</v>
       </c>
       <c r="D20">
-        <v>0.9697670109412712</v>
+        <v>0.9724207821249021</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9405179207929633</v>
+        <v>0.9437645439705917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022700017915857</v>
+        <v>1.024040358370224</v>
       </c>
       <c r="J20">
-        <v>0.9688466133178627</v>
+        <v>0.9721879863584776</v>
       </c>
       <c r="K20">
-        <v>0.9843631520624933</v>
+        <v>0.9869665564197544</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9556940569487438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9588739617300108</v>
+      </c>
+      <c r="N20">
+        <v>0.9735686048106271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9237620678788317</v>
+        <v>0.9273559115655625</v>
       </c>
       <c r="D21">
-        <v>0.9584158977391019</v>
+        <v>0.9611326098232418</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9250709824220824</v>
+        <v>0.9284127528240738</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017479539351922</v>
+        <v>1.018849304034167</v>
       </c>
       <c r="J21">
-        <v>0.9568332839552951</v>
+        <v>0.9602394345324493</v>
       </c>
       <c r="K21">
-        <v>0.9742303745779869</v>
+        <v>0.9768897471632034</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9416259864624492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9448903355891505</v>
+      </c>
+      <c r="N21">
+        <v>0.9616030846704882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9136762910568597</v>
+        <v>0.9173401014974818</v>
       </c>
       <c r="D22">
-        <v>0.9507839608369006</v>
+        <v>0.9535487592989204</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9146755877856103</v>
+        <v>0.918089706759201</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01394486538294</v>
+        <v>1.015337271809797</v>
       </c>
       <c r="J22">
-        <v>0.9487355040437999</v>
+        <v>0.9521917274249097</v>
       </c>
       <c r="K22">
-        <v>0.967397782122051</v>
+        <v>0.9701002203958466</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9321506029367962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9354793834848052</v>
+      </c>
+      <c r="N22">
+        <v>0.953543948895771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.91909351302863</v>
+        <v>0.9227188659913066</v>
       </c>
       <c r="D23">
-        <v>0.9548814415077064</v>
+        <v>0.9576198049329192</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.920257915486283</v>
+        <v>0.9236322914022599</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015844887913417</v>
+        <v>1.017224832687402</v>
       </c>
       <c r="J23">
-        <v>0.9530851562995949</v>
+        <v>0.9565137973110712</v>
       </c>
       <c r="K23">
-        <v>0.9710680212476864</v>
+        <v>0.9737467560303561</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9372395964098077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9405329627723709</v>
+      </c>
+      <c r="N23">
+        <v>0.9578721566169188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9389718173476813</v>
+        <v>0.9424726038265049</v>
       </c>
       <c r="D24">
-        <v>0.9699498704702352</v>
+        <v>0.9726027045310335</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9407666643691213</v>
+        <v>0.9440118658893935</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022783725079799</v>
+        <v>1.024123629725656</v>
       </c>
       <c r="J24">
-        <v>0.9690398417025926</v>
+        <v>0.9723802579888581</v>
       </c>
       <c r="K24">
-        <v>0.9845260834830601</v>
+        <v>0.9871286586821266</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9559204652754131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9590991113929449</v>
+      </c>
+      <c r="N24">
+        <v>0.9737611494887767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9596462749171882</v>
+        <v>0.9630412065470378</v>
       </c>
       <c r="D25">
-        <v>0.985666781159843</v>
+        <v>0.9882471821777497</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9621426023526946</v>
+        <v>0.9652772701616277</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029925665226246</v>
+        <v>1.031232170703757</v>
       </c>
       <c r="J25">
-        <v>0.9856124349929141</v>
+        <v>0.9888797739084705</v>
       </c>
       <c r="K25">
-        <v>0.9984917530923745</v>
+        <v>1.001030727195867</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.975358482777409</v>
+        <v>0.9784396403171025</v>
+      </c>
+      <c r="N25">
+        <v>0.990284096613516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9779808289623353</v>
+        <v>0.975282152733344</v>
       </c>
       <c r="D2">
-        <v>0.9996299200135447</v>
+        <v>0.9969043671865645</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9807563634341128</v>
+        <v>0.9507755823464581</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036329736415952</v>
+        <v>1.031148764559183</v>
       </c>
       <c r="J2">
-        <v>1.000840685173705</v>
+        <v>0.9982281705130914</v>
       </c>
       <c r="K2">
-        <v>1.01109441304693</v>
+        <v>1.008406998232616</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9924904663798406</v>
+        <v>0.9629661317280003</v>
       </c>
       <c r="N2">
-        <v>1.002261993744683</v>
+        <v>0.9996457690135913</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9881360543106376</v>
+        <v>0.9856051033783962</v>
       </c>
       <c r="D3">
-        <v>1.007373110894791</v>
+        <v>1.004812325679104</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9912965776972433</v>
+        <v>0.9642099831090613</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039754600168896</v>
+        <v>1.034420896696956</v>
       </c>
       <c r="J3">
-        <v>1.008955451891595</v>
+        <v>1.006496031212416</v>
       </c>
       <c r="K3">
-        <v>1.017912512686996</v>
+        <v>1.015383999989256</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.002042045177533</v>
+        <v>0.9753222549127627</v>
       </c>
       <c r="N3">
-        <v>1.010388284362089</v>
+        <v>1.007925371023446</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944279661777121</v>
+        <v>0.9919803161569338</v>
       </c>
       <c r="D4">
-        <v>1.012171762413488</v>
+        <v>1.009698470846622</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9978352151584264</v>
+        <v>0.9724937245408201</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041857298918095</v>
+        <v>1.036425142900019</v>
       </c>
       <c r="J4">
-        <v>1.013975287153587</v>
+        <v>1.01159141504458</v>
       </c>
       <c r="K4">
-        <v>1.02212547147976</v>
+        <v>1.019681236312754</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.007959837635359</v>
+        <v>0.9829358678735269</v>
       </c>
       <c r="N4">
-        <v>1.015415248365937</v>
+        <v>1.0130279908851</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9970114927996936</v>
+        <v>0.9945937779204261</v>
       </c>
       <c r="D5">
-        <v>1.01414222753728</v>
+        <v>1.011701869047066</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.000521985959959</v>
+        <v>0.9758872722825054</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042715973201094</v>
+        <v>1.037242709155763</v>
       </c>
       <c r="J5">
-        <v>1.016034516143301</v>
+        <v>1.013677644295599</v>
       </c>
       <c r="K5">
-        <v>1.02385251567449</v>
+        <v>1.021439973977816</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.010389672995724</v>
+        <v>0.9860535428637824</v>
       </c>
       <c r="N5">
-        <v>1.017477401697012</v>
+        <v>1.01511718282095</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9974418067349273</v>
+        <v>0.9950288438337407</v>
       </c>
       <c r="D6">
-        <v>1.014470429393067</v>
+        <v>1.012035393050683</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.000969609427207</v>
+        <v>0.9764520864558732</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042858714337202</v>
+        <v>1.037378569148124</v>
       </c>
       <c r="J6">
-        <v>1.01637738455046</v>
+        <v>1.014024788821277</v>
       </c>
       <c r="K6">
-        <v>1.024140002868114</v>
+        <v>1.021732581133327</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.010794382418209</v>
+        <v>0.986572360016458</v>
       </c>
       <c r="N6">
-        <v>1.017820757016637</v>
+        <v>1.015464820331672</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944627229635035</v>
+        <v>0.9920154918100632</v>
       </c>
       <c r="D7">
-        <v>1.012198271436456</v>
+        <v>1.0097254342027</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9978713532672344</v>
+        <v>0.9725394078118805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041868869702364</v>
+        <v>1.036436163078118</v>
       </c>
       <c r="J7">
-        <v>1.014002998360314</v>
+        <v>1.011619504726019</v>
       </c>
       <c r="K7">
-        <v>1.022148717232938</v>
+        <v>1.019704919423432</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.00799252712713</v>
+        <v>0.9829778428459454</v>
       </c>
       <c r="N7">
-        <v>1.015442998925755</v>
+        <v>1.013056120457109</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9814740263624822</v>
+        <v>0.9788379055476772</v>
       </c>
       <c r="D8">
-        <v>1.002293047506876</v>
+        <v>0.9996276316791339</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9843802234277945</v>
+        <v>0.9554064200882164</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037511861449265</v>
+        <v>1.03227933001975</v>
       </c>
       <c r="J8">
-        <v>1.003633625041926</v>
+        <v>1.001078305911847</v>
       </c>
       <c r="K8">
-        <v>1.013442047340234</v>
+        <v>1.010812649293575</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9957760156172591</v>
+        <v>0.9672263525489001</v>
       </c>
       <c r="N8">
-        <v>1.005058899907872</v>
+        <v>1.002499951931528</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9561689624821251</v>
+        <v>0.9529482318490032</v>
       </c>
       <c r="D9">
-        <v>0.9830160593812431</v>
+        <v>0.9798203638127498</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9581666472185502</v>
+        <v>0.9215852699149859</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028867378586171</v>
+        <v>1.023977658291597</v>
       </c>
       <c r="J9">
-        <v>0.9833704598586832</v>
+        <v>0.9802793847464776</v>
       </c>
       <c r="K9">
-        <v>0.9963908335797466</v>
+        <v>0.9932495523682084</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9719769784918638</v>
+        <v>0.9360930515280418</v>
       </c>
       <c r="N9">
-        <v>0.9847669587058511</v>
+        <v>0.9816714939124347</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9371938833112078</v>
+        <v>0.9332934603383255</v>
       </c>
       <c r="D10">
-        <v>0.968594354275378</v>
+        <v>0.9648255147118432</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.9385620073312831</v>
+        <v>0.8957011876141593</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022285932383175</v>
+        <v>1.017589363284678</v>
       </c>
       <c r="J10">
-        <v>0.9681417227651675</v>
+        <v>0.9644286807140684</v>
       </c>
       <c r="K10">
-        <v>0.9835547836712129</v>
+        <v>0.9798602873592432</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
-        <v>0.9541368215760045</v>
+        <v>0.9122488454984408</v>
       </c>
       <c r="N10">
-        <v>0.9695165950589019</v>
+        <v>0.9657982800621983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9283350009483505</v>
+        <v>0.924025857372218</v>
       </c>
       <c r="D11">
-        <v>0.9618746794044825</v>
+        <v>0.9577712662116357</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9294223889964669</v>
+        <v>0.8834146644940805</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019191945161924</v>
+        <v>1.014558830081601</v>
       </c>
       <c r="J11">
-        <v>0.9610260185569784</v>
+        <v>0.9569403455923507</v>
       </c>
       <c r="K11">
-        <v>0.9775532706969681</v>
+        <v>0.9735360522486736</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.9458104488523827</v>
+        <v>0.9009299330997955</v>
       </c>
       <c r="N11">
-        <v>0.9623907857345544</v>
+        <v>0.9582993106456836</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9249319330511991</v>
+        <v>0.9204475626093594</v>
       </c>
       <c r="D12">
-        <v>0.9592959653894731</v>
+        <v>0.9550506414217079</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9259135480406505</v>
+        <v>0.8786545950612276</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018000465709919</v>
+        <v>1.013386195640571</v>
       </c>
       <c r="J12">
-        <v>0.9582919471717485</v>
+        <v>0.9540468593142492</v>
       </c>
       <c r="K12">
-        <v>0.9752468682312706</v>
+        <v>0.9710928222986199</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.9426124790080203</v>
+        <v>0.8965450598764959</v>
       </c>
       <c r="N12">
-        <v>0.9596528316543551</v>
+        <v>0.9554017152851797</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9256672928615401</v>
+        <v>0.9212216997735704</v>
       </c>
       <c r="D13">
-        <v>0.9598530652728218</v>
+        <v>0.9556390776379659</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9266716693320025</v>
+        <v>0.8796852024786408</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018258057482862</v>
+        <v>1.013639995463508</v>
       </c>
       <c r="J13">
-        <v>0.9588827691105237</v>
+        <v>0.9546729419146062</v>
       </c>
       <c r="K13">
-        <v>0.9757452898698188</v>
+        <v>0.9716214548488247</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>0.9433034928943156</v>
+        <v>0.8974944103535542</v>
       </c>
       <c r="N13">
-        <v>0.9602444926280518</v>
+        <v>0.9560286869946419</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9280561034872076</v>
+        <v>0.9237329993090836</v>
       </c>
       <c r="D14">
-        <v>0.96166328550083</v>
+        <v>0.9575485361248549</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.929134780628326</v>
+        <v>0.8830254383758518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019094355674618</v>
+        <v>1.014462907544247</v>
       </c>
       <c r="J14">
-        <v>0.9608019596129745</v>
+        <v>0.9567035783387767</v>
       </c>
       <c r="K14">
-        <v>0.9773642674618578</v>
+        <v>0.9733361176414141</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9490745509764518</v>
       </c>
       <c r="M14">
-        <v>0.9455483483614278</v>
+        <v>0.9005713769883517</v>
       </c>
       <c r="N14">
-        <v>0.9621664086011501</v>
+        <v>0.9580622071554521</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.929512478628168</v>
+        <v>0.9252615081878914</v>
       </c>
       <c r="D15">
-        <v>0.9627672722574981</v>
+        <v>0.9587111555206996</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717471</v>
       </c>
       <c r="F15">
-        <v>0.9306367274038443</v>
+        <v>0.8850562426273447</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019603840902627</v>
+        <v>1.014963454220743</v>
       </c>
       <c r="J15">
-        <v>0.9619719495398757</v>
+        <v>0.9579392454264246</v>
       </c>
       <c r="K15">
-        <v>0.9783511868515535</v>
+        <v>0.9743795782581568</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9494987508767191</v>
       </c>
       <c r="M15">
-        <v>0.9469170340431867</v>
+        <v>0.902442174975065</v>
       </c>
       <c r="N15">
-        <v>0.963338060047947</v>
+        <v>0.9592996290320973</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9377670055555719</v>
+        <v>0.9338908259551703</v>
       </c>
       <c r="D16">
-        <v>0.9690294001796924</v>
+        <v>0.9652805915507015</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9391535678934967</v>
+        <v>0.8964911921656913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022485681516184</v>
+        <v>1.017784349231326</v>
       </c>
       <c r="J16">
-        <v>0.9686019704213835</v>
+        <v>0.9649110656125457</v>
       </c>
       <c r="K16">
-        <v>0.9839428977024364</v>
+        <v>0.9802677284968042</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9546755584040478</v>
+        <v>0.9129766524357433</v>
       </c>
       <c r="N16">
-        <v>0.9699774963195809</v>
+        <v>0.9662813500025617</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9427627174815901</v>
+        <v>0.939087388498667</v>
       </c>
       <c r="D17">
-        <v>0.9728230872508472</v>
+        <v>0.9692412030949382</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855668</v>
       </c>
       <c r="F17">
-        <v>0.9443114715548216</v>
+        <v>0.9033542169539455</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024224488104638</v>
+        <v>1.019478559358409</v>
       </c>
       <c r="J17">
-        <v>0.9726131653937902</v>
+        <v>0.9691058065171924</v>
       </c>
       <c r="K17">
-        <v>0.9873250180510533</v>
+        <v>0.9838109314640928</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9593718516136375</v>
+        <v>0.9192993079570877</v>
       </c>
       <c r="N17">
-        <v>0.9739943876489389</v>
+        <v>0.9704820479204364</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9456158893156883</v>
+        <v>0.9420472026627507</v>
       </c>
       <c r="D18">
-        <v>0.9749909441649144</v>
+        <v>0.9714984827961473</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.9472584839342226</v>
+        <v>0.9072560132605539</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025215580586979</v>
+        <v>1.020441838411927</v>
       </c>
       <c r="J18">
-        <v>0.9749034962931958</v>
+        <v>0.9714936926697336</v>
       </c>
       <c r="K18">
-        <v>0.9892557969866449</v>
+        <v>0.9858280197307572</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865728</v>
       </c>
       <c r="M18">
-        <v>0.9620542521471759</v>
+        <v>0.9228937985474684</v>
       </c>
       <c r="N18">
-        <v>0.9762879710809262</v>
+        <v>0.9728733251452087</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9465788681832843</v>
+        <v>0.9430449092785155</v>
       </c>
       <c r="D19">
-        <v>0.9757228080931651</v>
+        <v>0.9722596017711942</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680088</v>
       </c>
       <c r="F19">
-        <v>0.9482533378375758</v>
+        <v>0.9085701210348592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025549743119416</v>
+        <v>1.020766251074681</v>
       </c>
       <c r="J19">
-        <v>0.9756764084017087</v>
+        <v>0.9722983876845307</v>
       </c>
       <c r="K19">
-        <v>0.9899073074753052</v>
+        <v>0.9865077689019318</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493812709</v>
       </c>
       <c r="M19">
-        <v>0.9629596297665827</v>
+        <v>0.9241043813290898</v>
       </c>
       <c r="N19">
-        <v>0.9770619808132872</v>
+        <v>0.9736791629192266</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9422331108301616</v>
+        <v>0.9385373562528437</v>
       </c>
       <c r="D20">
-        <v>0.9724207821249021</v>
+        <v>0.9688218374425122</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9437645439705917</v>
+        <v>0.9026285705729729</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024040358370224</v>
+        <v>1.019299410444149</v>
       </c>
       <c r="J20">
-        <v>0.9721879863584776</v>
+        <v>0.9686619501694476</v>
       </c>
       <c r="K20">
-        <v>0.9869665564197544</v>
+        <v>0.983436004526967</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9588739617300108</v>
+        <v>0.9186308034803551</v>
       </c>
       <c r="N20">
-        <v>0.9735686048106271</v>
+        <v>0.9700375612457666</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9273559115655625</v>
+        <v>0.9229974478619316</v>
       </c>
       <c r="D21">
-        <v>0.9611326098232418</v>
+        <v>0.9569891719822495</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148881</v>
       </c>
       <c r="F21">
-        <v>0.9284127528240738</v>
+        <v>0.8820475722799825</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018849304034167</v>
+        <v>1.014221946050943</v>
       </c>
       <c r="J21">
-        <v>0.9602394345324493</v>
+        <v>0.9561088713456365</v>
       </c>
       <c r="K21">
-        <v>0.9768897471632034</v>
+        <v>0.9728339343034034</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981056</v>
       </c>
       <c r="M21">
-        <v>0.9448903355891505</v>
+        <v>0.899670571041884</v>
       </c>
       <c r="N21">
-        <v>0.9616030846704882</v>
+        <v>0.9574666556101674</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9173401014974818</v>
+        <v>0.912424017923294</v>
       </c>
       <c r="D22">
-        <v>0.9535487592989204</v>
+        <v>0.9489568459977755</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.918089706759201</v>
+        <v>0.8679454841779273</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015337271809797</v>
+        <v>1.010752428711981</v>
       </c>
       <c r="J22">
-        <v>0.9521917274249097</v>
+        <v>0.9475547429344213</v>
       </c>
       <c r="K22">
-        <v>0.9701002203958466</v>
+        <v>0.9656121441548657</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9354793834848052</v>
+        <v>0.8866812783888771</v>
       </c>
       <c r="N22">
-        <v>0.953543948895771</v>
+        <v>0.9489003793554364</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9227188659913066</v>
+        <v>0.9181146583943953</v>
       </c>
       <c r="D23">
-        <v>0.9576198049329192</v>
+        <v>0.9532778679150165</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9236322914022599</v>
+        <v>0.8755460583826534</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017224832687402</v>
+        <v>1.01262100709052</v>
       </c>
       <c r="J23">
-        <v>0.9565137973110712</v>
+        <v>0.9521598029336347</v>
       </c>
       <c r="K23">
-        <v>0.9737467560303561</v>
+        <v>0.9694995773672608</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9405329627723709</v>
+        <v>0.8936817006038897</v>
       </c>
       <c r="N23">
-        <v>0.9578721566169188</v>
+        <v>0.9535119790680564</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9424726038265049</v>
+        <v>0.9387861107423451</v>
       </c>
       <c r="D24">
-        <v>0.9726027045310335</v>
+        <v>0.969011492982395</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011711</v>
       </c>
       <c r="F24">
-        <v>0.9440118658893935</v>
+        <v>0.9029567694903788</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024123629725656</v>
+        <v>1.019380436630313</v>
       </c>
       <c r="J24">
-        <v>0.9723802579888581</v>
+        <v>0.9688626902602837</v>
       </c>
       <c r="K24">
-        <v>0.9871286586821266</v>
+        <v>0.9836055700736082</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9533716596442454</v>
       </c>
       <c r="M24">
-        <v>0.9590991113929449</v>
+        <v>0.9189331582941457</v>
       </c>
       <c r="N24">
-        <v>0.9737611494887767</v>
+        <v>0.970238586410557</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9630412065470378</v>
+        <v>0.9600113812394769</v>
       </c>
       <c r="D25">
-        <v>0.9882471821777497</v>
+        <v>0.9852187359174712</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9652772701616277</v>
+        <v>0.9308386329807428</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031232170703757</v>
+        <v>1.026257259778978</v>
       </c>
       <c r="J25">
-        <v>0.9888797739084705</v>
+        <v>0.9859637583965705</v>
       </c>
       <c r="K25">
-        <v>1.001030727195867</v>
+        <v>0.9980509293439916</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9784396403171025</v>
+        <v>0.9446146916984698</v>
       </c>
       <c r="N25">
-        <v>0.990284096613516</v>
+        <v>0.9873639400251174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.975282152733344</v>
+        <v>0.9543542650395115</v>
       </c>
       <c r="D2">
-        <v>0.9969043671865645</v>
+        <v>0.9806391533331111</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9507755823464581</v>
+        <v>0.9286134723373399</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031148764559183</v>
+        <v>1.025620951934016</v>
       </c>
       <c r="J2">
-        <v>0.9982281705130914</v>
+        <v>0.9779915542533226</v>
       </c>
       <c r="K2">
-        <v>1.008406998232616</v>
+        <v>0.9923749717775137</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9629661317280003</v>
+        <v>0.9411658576861844</v>
       </c>
       <c r="N2">
-        <v>0.9996457690135913</v>
+        <v>0.9793804144375615</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9856051033783962</v>
+        <v>0.9671214125926431</v>
       </c>
       <c r="D3">
-        <v>1.004812325679104</v>
+        <v>0.9903707202714154</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9642099831090613</v>
+        <v>0.9447706366631107</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034420896696956</v>
+        <v>1.029326020757013</v>
       </c>
       <c r="J3">
-        <v>1.006496031212416</v>
+        <v>0.9885503572108624</v>
       </c>
       <c r="K3">
-        <v>1.015383999989256</v>
+        <v>1.001128310474256</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9753222549127627</v>
+        <v>0.956162613938733</v>
       </c>
       <c r="N3">
-        <v>1.007925371023446</v>
+        <v>0.9899542121064127</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9919803161569338</v>
+        <v>0.9749232046807313</v>
       </c>
       <c r="D4">
-        <v>1.009698470846622</v>
+        <v>0.9963210168620914</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9724937245408201</v>
+        <v>0.9546259145615343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036425142900019</v>
+        <v>1.031571770317808</v>
       </c>
       <c r="J4">
-        <v>1.01159141504458</v>
+        <v>0.994990882060373</v>
       </c>
       <c r="K4">
-        <v>1.019681236312754</v>
+        <v>1.006464047713538</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9829358678735269</v>
+        <v>0.9653046750001213</v>
       </c>
       <c r="N4">
-        <v>1.0130279908851</v>
+        <v>0.9964038832399482</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945937779204261</v>
+        <v>0.9781046353888315</v>
       </c>
       <c r="D5">
-        <v>1.011701869047066</v>
+        <v>0.9987479371188956</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9758872722825054</v>
+        <v>0.9586415746794338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037242709155763</v>
+        <v>1.032483000682741</v>
       </c>
       <c r="J5">
-        <v>1.013677644295599</v>
+        <v>0.9976143519988748</v>
       </c>
       <c r="K5">
-        <v>1.021439973977816</v>
+        <v>1.008636516737796</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9860535428637824</v>
+        <v>0.9690283027158273</v>
       </c>
       <c r="N5">
-        <v>1.01511718282095</v>
+        <v>0.9990310788066789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9950288438337407</v>
+        <v>0.9786333365573187</v>
       </c>
       <c r="D6">
-        <v>1.012035393050683</v>
+        <v>0.9991512712712022</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9764520864558732</v>
+        <v>0.959308756367466</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037378569148124</v>
+        <v>1.032634160587676</v>
       </c>
       <c r="J6">
-        <v>1.014024788821277</v>
+        <v>0.9980501599267104</v>
       </c>
       <c r="K6">
-        <v>1.021732581133327</v>
+        <v>1.008997343630841</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.986572360016458</v>
+        <v>0.9696468777411473</v>
       </c>
       <c r="N6">
-        <v>1.015464820331672</v>
+        <v>0.9994675056317597</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9920154918100632</v>
+        <v>0.9749660881973922</v>
       </c>
       <c r="D7">
-        <v>1.0097254342027</v>
+        <v>0.9963537285379136</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9725394078118805</v>
+        <v>0.9546800540133881</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036436163078118</v>
+        <v>1.031584071344318</v>
       </c>
       <c r="J7">
-        <v>1.011619504726019</v>
+        <v>0.9950262560701137</v>
       </c>
       <c r="K7">
-        <v>1.019704919423432</v>
+        <v>1.0064933446381</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9829778428459454</v>
+        <v>0.9653548830574711</v>
       </c>
       <c r="N7">
-        <v>1.013056120457109</v>
+        <v>0.9964393074848399</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9788379055476772</v>
+        <v>0.9587717617133221</v>
       </c>
       <c r="D8">
-        <v>0.9996276316791339</v>
+        <v>0.9840053389521718</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9554064200882164</v>
+        <v>0.93420865810995</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03227933001975</v>
+        <v>1.026906775869277</v>
       </c>
       <c r="J8">
-        <v>1.001078305911847</v>
+        <v>0.9816474654651886</v>
       </c>
       <c r="K8">
-        <v>1.010812649293575</v>
+        <v>0.9954064173680188</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9672263525489001</v>
+        <v>0.9463602736491338</v>
       </c>
       <c r="N8">
-        <v>1.002499951931528</v>
+        <v>0.9830415174626871</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9529482318490032</v>
+        <v>0.9260488599545253</v>
       </c>
       <c r="D9">
-        <v>0.9798203638127498</v>
+        <v>0.959105197409119</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9215852699149859</v>
+        <v>0.8926068158526954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023977658291597</v>
+        <v>1.017305224953846</v>
       </c>
       <c r="J9">
-        <v>0.9802793847464776</v>
+        <v>0.9545134004437212</v>
       </c>
       <c r="K9">
-        <v>0.9932495523682084</v>
+        <v>0.9728985446515556</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9360930515280418</v>
+        <v>0.9077210411285578</v>
       </c>
       <c r="N9">
-        <v>0.9816714939124347</v>
+        <v>0.9558689189565688</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9332934603383255</v>
+        <v>0.9001146605867932</v>
       </c>
       <c r="D10">
-        <v>0.9648255147118432</v>
+        <v>0.9394483646595531</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.8957011876141593</v>
+        <v>0.8592976124180336</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017589363284678</v>
+        <v>1.009605161516645</v>
       </c>
       <c r="J10">
-        <v>0.9644286807140684</v>
+        <v>0.9329399007946509</v>
       </c>
       <c r="K10">
-        <v>0.9798602873592432</v>
+        <v>0.9550043009740815</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9122488454984408</v>
+        <v>0.8767754755336982</v>
       </c>
       <c r="N10">
-        <v>0.9657982800621983</v>
+        <v>0.9342647824634818</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.924025857372218</v>
+        <v>0.8874338860358418</v>
       </c>
       <c r="D11">
-        <v>0.9577712662116357</v>
+        <v>0.9298695212177202</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8834146644940805</v>
+        <v>0.8428632731560576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014558830081601</v>
+        <v>1.005823571382006</v>
       </c>
       <c r="J11">
-        <v>0.9569403455923507</v>
+        <v>0.9223751033362549</v>
       </c>
       <c r="K11">
-        <v>0.9735360522486736</v>
+        <v>0.9462473564684024</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9009299330997955</v>
+        <v>0.861512825643166</v>
       </c>
       <c r="N11">
-        <v>0.9582993106456836</v>
+        <v>0.9236849817808954</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9204475626093594</v>
+        <v>0.8824410524034587</v>
       </c>
       <c r="D12">
-        <v>0.9550506414217079</v>
+        <v>0.9261046440999233</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8786545950612276</v>
+        <v>0.8363610831871512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013386195640571</v>
+        <v>1.004332781934057</v>
       </c>
       <c r="J12">
-        <v>0.9540468593142492</v>
+        <v>0.9182129394969319</v>
       </c>
       <c r="K12">
-        <v>0.9710928222986199</v>
+        <v>0.9427990873720167</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.8965450598764959</v>
+        <v>0.8554761126403597</v>
       </c>
       <c r="N12">
-        <v>0.9554017152851797</v>
+        <v>0.9195169071915138</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9212216997735704</v>
+        <v>0.8835262090384445</v>
       </c>
       <c r="D13">
-        <v>0.9556390776379659</v>
+        <v>0.9269225815388689</v>
       </c>
       <c r="E13">
-        <v>0.9318723593367009</v>
+        <v>0.9318723593367008</v>
       </c>
       <c r="F13">
-        <v>0.8796852024786408</v>
+        <v>0.8377758970121181</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013639995463508</v>
+        <v>1.004656864786736</v>
       </c>
       <c r="J13">
-        <v>0.9546729419146062</v>
+        <v>0.919117667364617</v>
       </c>
       <c r="K13">
-        <v>0.9716214548488247</v>
+        <v>0.943548546311462</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964247</v>
+        <v>0.9483836088964245</v>
       </c>
       <c r="M13">
-        <v>0.8974944103535542</v>
+        <v>0.8567895347576876</v>
       </c>
       <c r="N13">
-        <v>0.9560286869946419</v>
+        <v>0.9204229198765447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9237329993090836</v>
+        <v>0.8870274289594713</v>
       </c>
       <c r="D14">
-        <v>0.9575485361248549</v>
+        <v>0.9295628851627624</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194315</v>
       </c>
       <c r="F14">
-        <v>0.8830254383758518</v>
+        <v>0.8423346404106712</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014462907544247</v>
+        <v>1.005702241700311</v>
       </c>
       <c r="J14">
-        <v>0.9567035783387767</v>
+        <v>0.9220363190477522</v>
       </c>
       <c r="K14">
-        <v>0.9733361176414141</v>
+        <v>0.9459666418874448</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764518</v>
+        <v>0.9490745509764517</v>
       </c>
       <c r="M14">
-        <v>0.9005713769883517</v>
+        <v>0.8610219904981883</v>
       </c>
       <c r="N14">
-        <v>0.9580622071554521</v>
+        <v>0.9233457163798441</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9252615081878914</v>
+        <v>0.8891447370155231</v>
       </c>
       <c r="D15">
-        <v>0.9587111555206996</v>
+        <v>0.9311604839545939</v>
       </c>
       <c r="E15">
         <v>0.9332781050717471</v>
       </c>
       <c r="F15">
-        <v>0.8850562426273447</v>
+        <v>0.8450870612082958</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014963454220743</v>
+        <v>1.006334200074136</v>
       </c>
       <c r="J15">
-        <v>0.9579392454264246</v>
+        <v>0.9238010088515135</v>
       </c>
       <c r="K15">
-        <v>0.9743795782581568</v>
+        <v>0.9474289246080774</v>
       </c>
       <c r="L15">
         <v>0.9494987508767191</v>
       </c>
       <c r="M15">
-        <v>0.902442174975065</v>
+        <v>0.8635776947933221</v>
       </c>
       <c r="N15">
-        <v>0.9592996290320973</v>
+        <v>0.9251129122455395</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9338908259551703</v>
+        <v>0.9009207999980384</v>
       </c>
       <c r="D16">
-        <v>0.9652805915507015</v>
+        <v>0.9400580865517487</v>
       </c>
       <c r="E16">
         <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.8964911921656913</v>
+        <v>0.8603387651510398</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017784349231326</v>
+        <v>1.009845279936435</v>
       </c>
       <c r="J16">
-        <v>0.9649110656125457</v>
+        <v>0.9336111993566839</v>
       </c>
       <c r="K16">
-        <v>0.9802677284968042</v>
+        <v>0.9555609025498613</v>
       </c>
       <c r="L16">
         <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9129766524357433</v>
+        <v>0.8777425844836257</v>
       </c>
       <c r="N16">
-        <v>0.9662813500025617</v>
+        <v>0.9349370343464718</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.939087388498667</v>
+        <v>0.9078818643940157</v>
       </c>
       <c r="D17">
-        <v>0.9692412030949382</v>
+        <v>0.9453267233416752</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855668</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9033542169539455</v>
+        <v>0.8693126393570106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019478559358409</v>
+        <v>1.011916980858064</v>
       </c>
       <c r="J17">
-        <v>0.9691058065171924</v>
+        <v>0.939406157607379</v>
       </c>
       <c r="K17">
-        <v>0.9838109314640928</v>
+        <v>0.9603664556933201</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9192993079570877</v>
+        <v>0.886078924402566</v>
       </c>
       <c r="N17">
-        <v>0.9704820479204364</v>
+        <v>0.9407402221025737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9420472026627507</v>
+        <v>0.911807594268398</v>
       </c>
       <c r="D18">
-        <v>0.9714984827961473</v>
+        <v>0.948300783544363</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9072560132605539</v>
+        <v>0.8743610255333828</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020441838411927</v>
+        <v>1.01308379950836</v>
       </c>
       <c r="J18">
-        <v>0.9714936926697336</v>
+        <v>0.9426728073390388</v>
       </c>
       <c r="K18">
-        <v>0.9858280197307572</v>
+        <v>0.9630758597214466</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865728</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9228937985474684</v>
+        <v>0.8907690631507152</v>
       </c>
       <c r="N18">
-        <v>0.9728733251452087</v>
+        <v>0.9440115108515426</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9430449092785155</v>
+        <v>0.9131248705011713</v>
       </c>
       <c r="D19">
-        <v>0.9722596017711942</v>
+        <v>0.9492991601754571</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680088</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9085701210348592</v>
+        <v>0.8760530904671058</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020766251074681</v>
+        <v>1.013475050736082</v>
       </c>
       <c r="J19">
-        <v>0.9722983876845307</v>
+        <v>0.9437686835858002</v>
       </c>
       <c r="K19">
-        <v>0.9865077689019318</v>
+        <v>0.963984860327035</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812709</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9241043813290898</v>
+        <v>0.8923411007641584</v>
       </c>
       <c r="N19">
-        <v>0.9736791629192266</v>
+        <v>0.9451089433682729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9385373562528437</v>
+        <v>0.9071493010638381</v>
       </c>
       <c r="D20">
-        <v>0.9688218374425122</v>
+        <v>0.9447719648929038</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9026285705729729</v>
+        <v>0.8683696108087302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019299410444149</v>
+        <v>1.011699117164404</v>
       </c>
       <c r="J20">
-        <v>0.9686619501694476</v>
+        <v>0.9387964637555316</v>
       </c>
       <c r="K20">
-        <v>0.983436004526967</v>
+        <v>0.959860802950788</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9186308034803551</v>
+        <v>0.8852028433728558</v>
       </c>
       <c r="N20">
-        <v>0.9700375612457666</v>
+        <v>0.9401296624155241</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9229974478619316</v>
+        <v>0.8860048855279561</v>
       </c>
       <c r="D21">
-        <v>0.9569891719822495</v>
+        <v>0.9287915785863561</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148881</v>
+        <v>0.9324872132148885</v>
       </c>
       <c r="F21">
-        <v>0.8820475722799825</v>
+        <v>0.8410041940088703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014221946050943</v>
+        <v>1.005396979900563</v>
       </c>
       <c r="J21">
-        <v>0.9561088713456365</v>
+        <v>0.9211839839656483</v>
       </c>
       <c r="K21">
-        <v>0.9728339343034034</v>
+        <v>0.9452604318010333</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981056</v>
+        <v>0.9488714019981058</v>
       </c>
       <c r="M21">
-        <v>0.899670571041884</v>
+        <v>0.8597867067238992</v>
       </c>
       <c r="N21">
-        <v>0.9574666556101674</v>
+        <v>0.9224921708841595</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.912424017923294</v>
+        <v>0.8710154184905999</v>
       </c>
       <c r="D22">
-        <v>0.9489568459977755</v>
+        <v>0.917504175913666</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651166</v>
       </c>
       <c r="F22">
-        <v>0.8679454841779273</v>
+        <v>0.8214067238085138</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010752428711981</v>
+        <v>1.00091871606317</v>
       </c>
       <c r="J22">
-        <v>0.9475547429344213</v>
+        <v>0.908683478772763</v>
       </c>
       <c r="K22">
-        <v>0.9656121441548657</v>
+        <v>0.9349084275807958</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572519</v>
       </c>
       <c r="M22">
-        <v>0.8866812783888771</v>
+        <v>0.8415977030015435</v>
       </c>
       <c r="N22">
-        <v>0.9489003793554364</v>
+        <v>0.909973913540072</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9181146583943953</v>
+        <v>0.8791533984567239</v>
       </c>
       <c r="D23">
-        <v>0.9532778679150165</v>
+        <v>0.9236277193976501</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>0.8755460583826534</v>
+        <v>0.8320690501170103</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01262100709052</v>
+        <v>1.003350712875934</v>
       </c>
       <c r="J23">
-        <v>0.9521598029336347</v>
+        <v>0.9154715556824227</v>
       </c>
       <c r="K23">
-        <v>0.9694995773672608</v>
+        <v>0.9405284999917073</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>0.8936817006038897</v>
+        <v>0.8514920627478019</v>
       </c>
       <c r="N23">
-        <v>0.9535119790680564</v>
+        <v>0.9167716302975468</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9387861107423451</v>
+        <v>0.9074807262108059</v>
       </c>
       <c r="D24">
-        <v>0.969011492982395</v>
+        <v>0.9450229392261448</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011711</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9029567694903788</v>
+        <v>0.8687962928076746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019380436630313</v>
+        <v>1.011797687544318</v>
       </c>
       <c r="J24">
-        <v>0.9688626902602837</v>
+        <v>0.9390723050248994</v>
       </c>
       <c r="K24">
-        <v>0.9836055700736082</v>
+        <v>0.9600895718524969</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442454</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>0.9189331582941457</v>
+        <v>0.8855992331386657</v>
       </c>
       <c r="N24">
-        <v>0.970238586410557</v>
+        <v>0.9404058954111338</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9600113812394769</v>
+        <v>0.9351149646206263</v>
       </c>
       <c r="D25">
-        <v>0.9852187359174712</v>
+        <v>0.9659947712123866</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717734</v>
       </c>
       <c r="F25">
-        <v>0.9308386329807428</v>
+        <v>0.9041728293375028</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026257259778978</v>
+        <v>1.019981207687962</v>
       </c>
       <c r="J25">
-        <v>0.9859637583965705</v>
+        <v>0.962042267736188</v>
       </c>
       <c r="K25">
-        <v>0.9980509293439916</v>
+        <v>0.9791449563316681</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9598754494005612</v>
       </c>
       <c r="M25">
-        <v>0.9446146916984698</v>
+        <v>0.9184663585011263</v>
       </c>
       <c r="N25">
-        <v>0.9873639400251174</v>
+        <v>0.9634084781041637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9543542650395115</v>
+        <v>1.028318268037473</v>
       </c>
       <c r="D2">
-        <v>0.9806391533331111</v>
+        <v>1.031439595793088</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9286134723373399</v>
+        <v>1.026866817619818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025620951934016</v>
+        <v>1.029884976315947</v>
       </c>
       <c r="J2">
-        <v>0.9779915542533226</v>
+        <v>1.033471251638803</v>
       </c>
       <c r="K2">
-        <v>0.9923749717775137</v>
+        <v>1.034247709585159</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9411658576861844</v>
+        <v>1.029688212686092</v>
       </c>
       <c r="N2">
-        <v>0.9793804144375615</v>
+        <v>1.034938899356947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9671214125926431</v>
+        <v>1.030407171335024</v>
       </c>
       <c r="D3">
-        <v>0.9903707202714154</v>
+        <v>1.033021393207783</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9447706366631107</v>
+        <v>1.029607382516777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029326020757013</v>
+        <v>1.030361966769969</v>
       </c>
       <c r="J3">
-        <v>0.9885503572108624</v>
+        <v>1.035194878741642</v>
       </c>
       <c r="K3">
-        <v>1.001128310474256</v>
+        <v>1.035635999581812</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.956162613938733</v>
+        <v>1.032231160345852</v>
       </c>
       <c r="N3">
-        <v>0.9899542121064127</v>
+        <v>1.036664974207968</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9749232046807313</v>
+        <v>1.031751101258544</v>
       </c>
       <c r="D4">
-        <v>0.9963210168620914</v>
+        <v>1.034038208046212</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9546259145615343</v>
+        <v>1.031371866788579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031571770317808</v>
+        <v>1.030666365060876</v>
       </c>
       <c r="J4">
-        <v>0.994990882060373</v>
+        <v>1.03630240685744</v>
       </c>
       <c r="K4">
-        <v>1.006464047713538</v>
+        <v>1.036527144059523</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9653046750001213</v>
+        <v>1.033867592181122</v>
       </c>
       <c r="N4">
-        <v>0.9964038832399482</v>
+        <v>1.037774075140726</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9781046353888315</v>
+        <v>1.03231427937683</v>
       </c>
       <c r="D5">
-        <v>0.9987479371188956</v>
+        <v>1.034464099440905</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998344013</v>
       </c>
       <c r="F5">
-        <v>0.9586415746794338</v>
+        <v>1.032111596727522</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032483000682741</v>
+        <v>1.030793328676452</v>
       </c>
       <c r="J5">
-        <v>0.9976143519988748</v>
+        <v>1.036766185535673</v>
       </c>
       <c r="K5">
-        <v>1.008636516737796</v>
+        <v>1.036900092492043</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600051301</v>
       </c>
       <c r="M5">
-        <v>0.9690283027158273</v>
+        <v>1.034553442003936</v>
       </c>
       <c r="N5">
-        <v>0.9990310788066789</v>
+        <v>1.038238512437877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9786333365573187</v>
+        <v>1.032408734490383</v>
       </c>
       <c r="D6">
-        <v>0.9991512712712022</v>
+        <v>1.034535516828</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796335</v>
       </c>
       <c r="F6">
-        <v>0.959308756367466</v>
+        <v>1.032235681558761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032634160587676</v>
+        <v>1.030814587789368</v>
       </c>
       <c r="J6">
-        <v>0.9980501599267104</v>
+        <v>1.036843949937213</v>
       </c>
       <c r="K6">
-        <v>1.008997343630841</v>
+        <v>1.036962613963011</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673452</v>
       </c>
       <c r="M6">
-        <v>0.9696468777411473</v>
+        <v>1.034668477275075</v>
       </c>
       <c r="N6">
-        <v>0.9994675056317597</v>
+        <v>1.038316387273787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9749660881973922</v>
+        <v>1.031758633530072</v>
       </c>
       <c r="D7">
-        <v>0.9963537285379136</v>
+        <v>1.034043904986844</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978917</v>
       </c>
       <c r="F7">
-        <v>0.9546800540133881</v>
+        <v>1.031381759110282</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031584071344318</v>
+        <v>1.030668065490585</v>
       </c>
       <c r="J7">
-        <v>0.9950262560701137</v>
+        <v>1.03630861101967</v>
       </c>
       <c r="K7">
-        <v>1.0064933446381</v>
+        <v>1.036532134012393</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459043</v>
       </c>
       <c r="M7">
-        <v>0.9653548830574711</v>
+        <v>1.033876764742984</v>
       </c>
       <c r="N7">
-        <v>0.9964393074848399</v>
+        <v>1.037780288113577</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9587717617133221</v>
+        <v>1.029025847922547</v>
       </c>
       <c r="D8">
-        <v>0.9840053389521718</v>
+        <v>1.031975579848342</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>0.93420865810995</v>
+        <v>1.027794870959605</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026906775869277</v>
+        <v>1.03004706351436</v>
       </c>
       <c r="J8">
-        <v>0.9816474654651886</v>
+        <v>1.034055390335392</v>
       </c>
       <c r="K8">
-        <v>0.9954064173680188</v>
+        <v>1.034718390870148</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591057</v>
       </c>
       <c r="M8">
-        <v>0.9463602736491338</v>
+        <v>1.030549515638512</v>
       </c>
       <c r="N8">
-        <v>0.9830415174626871</v>
+        <v>1.035523867597479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9260488599545253</v>
+        <v>1.024149278608423</v>
       </c>
       <c r="D9">
-        <v>0.959105197409119</v>
+        <v>1.02827815176906</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.8926068158526954</v>
+        <v>1.021403931533868</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017305224953846</v>
+        <v>1.028919746501215</v>
       </c>
       <c r="J9">
-        <v>0.9545134004437212</v>
+        <v>1.030023798091202</v>
       </c>
       <c r="K9">
-        <v>0.9728985446515556</v>
+        <v>1.03146612669365</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9077210411285578</v>
+        <v>1.024614870481193</v>
       </c>
       <c r="N9">
-        <v>0.9558689189565688</v>
+        <v>1.031486550029872</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9001146605867932</v>
+        <v>1.020854566571942</v>
       </c>
       <c r="D10">
-        <v>0.9394483646595531</v>
+        <v>1.02577579587502</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.8592976124180336</v>
+        <v>1.017092234453927</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009605161516645</v>
+        <v>1.028145269193014</v>
       </c>
       <c r="J10">
-        <v>0.9329399007946509</v>
+        <v>1.027292714811693</v>
       </c>
       <c r="K10">
-        <v>0.9550043009740815</v>
+        <v>1.029258326516209</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.8767754755336982</v>
+        <v>1.020606776958628</v>
       </c>
       <c r="N10">
-        <v>0.9342647824634818</v>
+        <v>1.028751588298847</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8874338860358418</v>
+        <v>1.019416970294698</v>
       </c>
       <c r="D11">
-        <v>0.9298695212177202</v>
+        <v>1.024682941126315</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.8428632731560576</v>
+        <v>1.015212260230845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.005823571382006</v>
+        <v>1.027804308338857</v>
       </c>
       <c r="J11">
-        <v>0.9223751033362549</v>
+        <v>1.026099331503987</v>
       </c>
       <c r="K11">
-        <v>0.9462473564684024</v>
+        <v>1.028292512255497</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.861512825643166</v>
+        <v>1.018858177730902</v>
       </c>
       <c r="N11">
-        <v>0.9236849817808954</v>
+        <v>1.027556510249961</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8824410524034587</v>
+        <v>1.018881284086557</v>
       </c>
       <c r="D12">
-        <v>0.9261046440999233</v>
+        <v>1.024275568248823</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9881042295825494</v>
       </c>
       <c r="F12">
-        <v>0.8363610831871512</v>
+        <v>1.014511929900379</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004332781934057</v>
+        <v>1.027676803502445</v>
       </c>
       <c r="J12">
-        <v>0.9182129394969319</v>
+        <v>1.025654387700594</v>
       </c>
       <c r="K12">
-        <v>0.9427990873720167</v>
+        <v>1.0279322539781</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.991905972511983</v>
       </c>
       <c r="M12">
-        <v>0.8554761126403597</v>
+        <v>1.018206637304541</v>
       </c>
       <c r="N12">
-        <v>0.9195169071915138</v>
+        <v>1.027110934575332</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8835262090384445</v>
+        <v>1.018996268320653</v>
       </c>
       <c r="D13">
-        <v>0.9269225815388689</v>
+        <v>1.024363016805238</v>
       </c>
       <c r="E13">
-        <v>0.9318723593367008</v>
+        <v>0.9881581567098647</v>
       </c>
       <c r="F13">
-        <v>0.8377758970121181</v>
+        <v>1.014662245939842</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004656864786736</v>
+        <v>1.027704192729392</v>
       </c>
       <c r="J13">
-        <v>0.919117667364617</v>
+        <v>1.025749905869864</v>
       </c>
       <c r="K13">
-        <v>0.943548546311462</v>
+        <v>1.028009599606739</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964245</v>
+        <v>0.9919494934313047</v>
       </c>
       <c r="M13">
-        <v>0.8567895347576876</v>
+        <v>1.018346488060443</v>
       </c>
       <c r="N13">
-        <v>0.9204229198765447</v>
+        <v>1.027206588391358</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8870274289594713</v>
+        <v>1.019372725266803</v>
       </c>
       <c r="D14">
-        <v>0.9295628851627624</v>
+        <v>1.02464929711433</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194315</v>
+        <v>0.988334886381446</v>
       </c>
       <c r="F14">
-        <v>0.8423346404106712</v>
+        <v>1.01515441243438</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.005702241700311</v>
+        <v>1.02779378631214</v>
       </c>
       <c r="J14">
-        <v>0.9220363190477522</v>
+        <v>1.026062586600973</v>
       </c>
       <c r="K14">
-        <v>0.9459666418874448</v>
+        <v>1.028262764247688</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764517</v>
+        <v>0.9920921077337194</v>
       </c>
       <c r="M14">
-        <v>0.8610219904981883</v>
+        <v>1.018804363072509</v>
       </c>
       <c r="N14">
-        <v>0.9233457163798441</v>
+        <v>1.02751971316497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8891447370155231</v>
+        <v>1.019604446124042</v>
       </c>
       <c r="D15">
-        <v>0.9311604839545939</v>
+        <v>1.024825492165206</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717471</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.8450870612082958</v>
+        <v>1.015457381988439</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.006334200074136</v>
+        <v>1.02784887390573</v>
       </c>
       <c r="J15">
-        <v>0.9238010088515135</v>
+        <v>1.026255017127842</v>
       </c>
       <c r="K15">
-        <v>0.9474289246080774</v>
+        <v>1.02841854590647</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767191</v>
+        <v>0.9921799884222137</v>
       </c>
       <c r="M15">
-        <v>0.8635776947933221</v>
+        <v>1.019086203506897</v>
       </c>
       <c r="N15">
-        <v>0.9251129122455395</v>
+        <v>1.027712416965259</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9009207999980384</v>
+        <v>1.020949739712413</v>
       </c>
       <c r="D16">
-        <v>0.9400580865517487</v>
+        <v>1.025848125497125</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9890781214508735</v>
       </c>
       <c r="F16">
-        <v>0.8603387651510398</v>
+        <v>1.017216722383279</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009845279936435</v>
+        <v>1.02816777828623</v>
       </c>
       <c r="J16">
-        <v>0.9336111993566839</v>
+        <v>1.027371684272969</v>
       </c>
       <c r="K16">
-        <v>0.9555609025498613</v>
+        <v>1.029322214415237</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.8777425844836257</v>
+        <v>1.020722544504028</v>
       </c>
       <c r="N16">
-        <v>0.9349370343464718</v>
+        <v>1.028830669905816</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9078818643940157</v>
+        <v>1.021790635268107</v>
       </c>
       <c r="D17">
-        <v>0.9453267233416752</v>
+        <v>1.026487075063732</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.8693126393570106</v>
+        <v>1.01831678307636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011916980858064</v>
+        <v>1.028366307347311</v>
       </c>
       <c r="J17">
-        <v>0.939406157607379</v>
+        <v>1.028069215766415</v>
       </c>
       <c r="K17">
-        <v>0.9603664556933201</v>
+        <v>1.029886406821217</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.886078924402566</v>
+        <v>1.021745430686745</v>
       </c>
       <c r="N17">
-        <v>0.9407402221025737</v>
+        <v>1.029529191973991</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.911807594268398</v>
+        <v>1.022280061078309</v>
       </c>
       <c r="D18">
-        <v>0.948300783544363</v>
+        <v>1.02685886708149</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.8743610255333828</v>
+        <v>1.018957182473067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01308379950836</v>
+        <v>1.028481565977865</v>
       </c>
       <c r="J18">
-        <v>0.9426728073390388</v>
+        <v>1.028475034502821</v>
       </c>
       <c r="K18">
-        <v>0.9630758597214466</v>
+        <v>1.030214545489426</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.8907690631507152</v>
+        <v>1.022340806760161</v>
       </c>
       <c r="N18">
-        <v>0.9440115108515426</v>
+        <v>1.02993558701955</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9131248705011713</v>
+        <v>1.02244676534472</v>
       </c>
       <c r="D19">
-        <v>0.9492991601754571</v>
+        <v>1.026985487635342</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.8760530904671058</v>
+        <v>1.019175332751986</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013475050736082</v>
+        <v>1.028520775027634</v>
       </c>
       <c r="J19">
-        <v>0.9437686835858002</v>
+        <v>1.028613233208225</v>
       </c>
       <c r="K19">
-        <v>0.963984860327035</v>
+        <v>1.030326273053103</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.8923411007641584</v>
+        <v>1.022543603632534</v>
       </c>
       <c r="N19">
-        <v>0.9451089433682729</v>
+        <v>1.030073981982967</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9071493010638381</v>
+        <v>1.021700524559139</v>
       </c>
       <c r="D20">
-        <v>0.9447719648929038</v>
+        <v>1.026418614819261</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.8683696108087302</v>
+        <v>1.018198886528695</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011699117164404</v>
+        <v>1.028345063017084</v>
       </c>
       <c r="J20">
-        <v>0.9387964637555316</v>
+        <v>1.027994485087126</v>
       </c>
       <c r="K20">
-        <v>0.959860802950788</v>
+        <v>1.029825972343118</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.8852028433728558</v>
+        <v>1.021635815105121</v>
       </c>
       <c r="N20">
-        <v>0.9401296624155241</v>
+        <v>1.029454355168565</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8860048855279561</v>
+        <v>1.019261915398848</v>
       </c>
       <c r="D21">
-        <v>0.9287915785863561</v>
+        <v>1.024565034702945</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148885</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.8410041940088703</v>
+        <v>1.015009538148483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005396979900563</v>
+        <v>1.02776742700398</v>
       </c>
       <c r="J21">
-        <v>0.9211839839656483</v>
+        <v>1.025970556329891</v>
       </c>
       <c r="K21">
-        <v>0.9452604318010333</v>
+        <v>1.028188255600064</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981058</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.8597867067238992</v>
+        <v>1.018669586974749</v>
       </c>
       <c r="N21">
-        <v>0.9224921708841595</v>
+        <v>1.027427552200347</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8710154184905999</v>
+        <v>1.01771880905706</v>
       </c>
       <c r="D22">
-        <v>0.917504175913666</v>
+        <v>1.023391276255889</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651166</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.8214067238085138</v>
+        <v>1.012992519015608</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.00091871606317</v>
+        <v>1.027399279805342</v>
       </c>
       <c r="J22">
-        <v>0.908683478772763</v>
+        <v>1.024688358033244</v>
       </c>
       <c r="K22">
-        <v>0.9349084275807958</v>
+        <v>1.027149792434783</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572519</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.8415977030015435</v>
+        <v>1.016792804839164</v>
       </c>
       <c r="N22">
-        <v>0.909973913540072</v>
+        <v>1.026143533035049</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8791533984567239</v>
+        <v>1.018537790713226</v>
       </c>
       <c r="D23">
-        <v>0.9236277193976501</v>
+        <v>1.024014311178306</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.8320690501170103</v>
+        <v>1.014062917841221</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003350712875934</v>
+        <v>1.027594917070817</v>
       </c>
       <c r="J23">
-        <v>0.9154715556824227</v>
+        <v>1.02536900773766</v>
       </c>
       <c r="K23">
-        <v>0.9405284999917073</v>
+        <v>1.027701144580647</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.8514920627478019</v>
+        <v>1.017788864356329</v>
       </c>
       <c r="N23">
-        <v>0.9167716302975468</v>
+        <v>1.026825149340116</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9074807262108059</v>
+        <v>1.021741244965208</v>
       </c>
       <c r="D24">
-        <v>0.9450229392261448</v>
+        <v>1.026449551825202</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.8687962928076746</v>
+        <v>1.018252162754498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011797687544318</v>
+        <v>1.028354664083432</v>
       </c>
       <c r="J24">
-        <v>0.9390723050248994</v>
+        <v>1.028028255874539</v>
       </c>
       <c r="K24">
-        <v>0.9600895718524969</v>
+        <v>1.029853283001422</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442451</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.8855992331386657</v>
+        <v>1.021685349546053</v>
       </c>
       <c r="N24">
-        <v>0.9404058954111338</v>
+        <v>1.02948817391437</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9351149646206263</v>
+        <v>1.025417489814463</v>
       </c>
       <c r="D25">
-        <v>0.9659947712123866</v>
+        <v>1.029240474918675</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717734</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.9041728293375028</v>
+        <v>1.023064864502748</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.019981207687962</v>
+        <v>1.029215172979549</v>
       </c>
       <c r="J25">
-        <v>0.962042267736188</v>
+        <v>1.031073534723454</v>
       </c>
       <c r="K25">
-        <v>0.9791449563316681</v>
+        <v>1.032313762632006</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005612</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9184663585011263</v>
+        <v>1.026157962018926</v>
       </c>
       <c r="N25">
-        <v>0.9634084781041637</v>
+        <v>1.032537777408549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028318268037473</v>
+        <v>0.9543542650395108</v>
       </c>
       <c r="D2">
-        <v>1.031439595793088</v>
+        <v>0.9806391533331105</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.026866817619818</v>
+        <v>0.9286134723373393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029884976315947</v>
+        <v>1.025620951934015</v>
       </c>
       <c r="J2">
-        <v>1.033471251638803</v>
+        <v>0.9779915542533218</v>
       </c>
       <c r="K2">
-        <v>1.034247709585159</v>
+        <v>0.9923749717775131</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.029688212686092</v>
+        <v>0.9411658576861839</v>
       </c>
       <c r="N2">
-        <v>1.034938899356947</v>
+        <v>0.9793804144375609</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030407171335024</v>
+        <v>0.9671214125926437</v>
       </c>
       <c r="D3">
-        <v>1.033021393207783</v>
+        <v>0.9903707202714157</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.029607382516777</v>
+        <v>0.9447706366631115</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030361966769969</v>
+        <v>1.029326020757013</v>
       </c>
       <c r="J3">
-        <v>1.035194878741642</v>
+        <v>0.9885503572108629</v>
       </c>
       <c r="K3">
-        <v>1.035635999581812</v>
+        <v>1.001128310474256</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.032231160345852</v>
+        <v>0.9561626139387339</v>
       </c>
       <c r="N3">
-        <v>1.036664974207968</v>
+        <v>0.9899542121064132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031751101258544</v>
+        <v>0.9749232046807318</v>
       </c>
       <c r="D4">
-        <v>1.034038208046212</v>
+        <v>0.9963210168620915</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.031371866788579</v>
+        <v>0.9546259145615352</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030666365060876</v>
+        <v>1.031571770317808</v>
       </c>
       <c r="J4">
-        <v>1.03630240685744</v>
+        <v>0.9949908820603733</v>
       </c>
       <c r="K4">
-        <v>1.036527144059523</v>
+        <v>1.006464047713539</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.033867592181122</v>
+        <v>0.9653046750001223</v>
       </c>
       <c r="N4">
-        <v>1.037774075140726</v>
+        <v>0.996403883239948</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03231427937683</v>
+        <v>0.9781046353888295</v>
       </c>
       <c r="D5">
-        <v>1.034464099440905</v>
+        <v>0.9987479371188941</v>
       </c>
       <c r="E5">
-        <v>0.9945786998344013</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.032111596727522</v>
+        <v>0.9586415746794313</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030793328676452</v>
+        <v>1.03248300068274</v>
       </c>
       <c r="J5">
-        <v>1.036766185535673</v>
+        <v>0.9976143519988728</v>
       </c>
       <c r="K5">
-        <v>1.036900092492043</v>
+        <v>1.008636516737794</v>
       </c>
       <c r="L5">
-        <v>0.9971179600051301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.034553442003936</v>
+        <v>0.969028302715825</v>
       </c>
       <c r="N5">
-        <v>1.038238512437877</v>
+        <v>0.9990310788066769</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032408734490383</v>
+        <v>0.9786333365573177</v>
       </c>
       <c r="D6">
-        <v>1.034535516828</v>
+        <v>0.9991512712712014</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796335</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.032235681558761</v>
+        <v>0.9593087563674648</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030814587789368</v>
+        <v>1.032634160587675</v>
       </c>
       <c r="J6">
-        <v>1.036843949937213</v>
+        <v>0.9980501599267094</v>
       </c>
       <c r="K6">
-        <v>1.036962613963011</v>
+        <v>1.008997343630841</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673452</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.034668477275075</v>
+        <v>0.969646877741146</v>
       </c>
       <c r="N6">
-        <v>1.038316387273787</v>
+        <v>0.9994675056317587</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031758633530072</v>
+        <v>0.9749660881973893</v>
       </c>
       <c r="D7">
-        <v>1.034043904986844</v>
+        <v>0.9963537285379114</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978917</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.031381759110282</v>
+        <v>0.9546800540133855</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030668065490585</v>
+        <v>1.031584071344317</v>
       </c>
       <c r="J7">
-        <v>1.03630861101967</v>
+        <v>0.995026256070111</v>
       </c>
       <c r="K7">
-        <v>1.036532134012393</v>
+        <v>1.006493344638097</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459043</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.033876764742984</v>
+        <v>0.9653548830574687</v>
       </c>
       <c r="N7">
-        <v>1.037780288113577</v>
+        <v>0.9964393074848373</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029025847922547</v>
+        <v>0.9587717617133228</v>
       </c>
       <c r="D8">
-        <v>1.031975579848342</v>
+        <v>0.9840053389521728</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.027794870959605</v>
+        <v>0.9342086581099502</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03004706351436</v>
+        <v>1.026906775869277</v>
       </c>
       <c r="J8">
-        <v>1.034055390335392</v>
+        <v>0.9816474654651894</v>
       </c>
       <c r="K8">
-        <v>1.034718390870148</v>
+        <v>0.9954064173680197</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591057</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.030549515638512</v>
+        <v>0.9463602736491339</v>
       </c>
       <c r="N8">
-        <v>1.035523867597479</v>
+        <v>0.9830415174626879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024149278608423</v>
+        <v>0.9260488599545229</v>
       </c>
       <c r="D9">
-        <v>1.02827815176906</v>
+        <v>0.9591051974091174</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.021403931533868</v>
+        <v>0.8926068158526932</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028919746501215</v>
+        <v>1.017305224953845</v>
       </c>
       <c r="J9">
-        <v>1.030023798091202</v>
+        <v>0.9545134004437191</v>
       </c>
       <c r="K9">
-        <v>1.03146612669365</v>
+        <v>0.972898544651554</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.024614870481193</v>
+        <v>0.9077210411285557</v>
       </c>
       <c r="N9">
-        <v>1.031486550029872</v>
+        <v>0.9558689189565662</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020854566571942</v>
+        <v>0.9001146605867933</v>
       </c>
       <c r="D10">
-        <v>1.02577579587502</v>
+        <v>0.9394483646595534</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547166</v>
       </c>
       <c r="F10">
-        <v>1.017092234453927</v>
+        <v>0.8592976124180334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028145269193014</v>
+        <v>1.009605161516645</v>
       </c>
       <c r="J10">
-        <v>1.027292714811693</v>
+        <v>0.9329399007946512</v>
       </c>
       <c r="K10">
-        <v>1.029258326516209</v>
+        <v>0.9550043009740817</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689268</v>
       </c>
       <c r="M10">
-        <v>1.020606776958628</v>
+        <v>0.8767754755336981</v>
       </c>
       <c r="N10">
-        <v>1.028751588298847</v>
+        <v>0.934264782463482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019416970294698</v>
+        <v>0.8874338860358416</v>
       </c>
       <c r="D11">
-        <v>1.024682941126315</v>
+        <v>0.9298695212177203</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016255</v>
       </c>
       <c r="F11">
-        <v>1.015212260230845</v>
+        <v>0.8428632731560571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027804308338857</v>
+        <v>1.005823571382006</v>
       </c>
       <c r="J11">
-        <v>1.026099331503987</v>
+        <v>0.9223751033362548</v>
       </c>
       <c r="K11">
-        <v>1.028292512255497</v>
+        <v>0.9462473564684024</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.949155612541657</v>
       </c>
       <c r="M11">
-        <v>1.018858177730902</v>
+        <v>0.8615128256431658</v>
       </c>
       <c r="N11">
-        <v>1.027556510249961</v>
+        <v>0.9236849817808954</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018881284086557</v>
+        <v>0.8824410524034598</v>
       </c>
       <c r="D12">
-        <v>1.024275568248823</v>
+        <v>0.926104644099924</v>
       </c>
       <c r="E12">
-        <v>0.9881042295825494</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.014511929900379</v>
+        <v>0.8363610831871524</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027676803502445</v>
+        <v>1.004332781934058</v>
       </c>
       <c r="J12">
-        <v>1.025654387700594</v>
+        <v>0.9182129394969328</v>
       </c>
       <c r="K12">
-        <v>1.0279322539781</v>
+        <v>0.9427990873720171</v>
       </c>
       <c r="L12">
-        <v>0.991905972511983</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.018206637304541</v>
+        <v>0.8554761126403609</v>
       </c>
       <c r="N12">
-        <v>1.027110934575332</v>
+        <v>0.9195169071915147</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018996268320653</v>
+        <v>0.8835262090384448</v>
       </c>
       <c r="D13">
-        <v>1.024363016805238</v>
+        <v>0.9269225815388691</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098647</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.014662245939842</v>
+        <v>0.8377758970121182</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027704192729392</v>
+        <v>1.004656864786736</v>
       </c>
       <c r="J13">
-        <v>1.025749905869864</v>
+        <v>0.9191176673646173</v>
       </c>
       <c r="K13">
-        <v>1.028009599606739</v>
+        <v>0.9435485463114623</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313047</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>1.018346488060443</v>
+        <v>0.8567895347576875</v>
       </c>
       <c r="N13">
-        <v>1.027206588391358</v>
+        <v>0.920422919876545</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.019372725266803</v>
+        <v>0.887027428959467</v>
       </c>
       <c r="D14">
-        <v>1.02464929711433</v>
+        <v>0.9295628851627588</v>
       </c>
       <c r="E14">
-        <v>0.988334886381446</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.01515441243438</v>
+        <v>0.8423346404106665</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02779378631214</v>
+        <v>1.00570224170031</v>
       </c>
       <c r="J14">
-        <v>1.026062586600973</v>
+        <v>0.9220363190477481</v>
       </c>
       <c r="K14">
-        <v>1.028262764247688</v>
+        <v>0.9459666418874414</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337194</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.018804363072509</v>
+        <v>0.8610219904981836</v>
       </c>
       <c r="N14">
-        <v>1.02751971316497</v>
+        <v>0.9233457163798399</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019604446124042</v>
+        <v>0.8891447370155231</v>
       </c>
       <c r="D15">
-        <v>1.024825492165206</v>
+        <v>0.9311604839545938</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717476</v>
       </c>
       <c r="F15">
-        <v>1.015457381988439</v>
+        <v>0.8450870612082956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02784887390573</v>
+        <v>1.006334200074136</v>
       </c>
       <c r="J15">
-        <v>1.026255017127842</v>
+        <v>0.9238010088515135</v>
       </c>
       <c r="K15">
-        <v>1.02841854590647</v>
+        <v>0.9474289246080775</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222137</v>
+        <v>0.9494987508767194</v>
       </c>
       <c r="M15">
-        <v>1.019086203506897</v>
+        <v>0.8635776947933218</v>
       </c>
       <c r="N15">
-        <v>1.027712416965259</v>
+        <v>0.9251129122455397</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020949739712413</v>
+        <v>0.9009207999980394</v>
       </c>
       <c r="D16">
-        <v>1.025848125497125</v>
+        <v>0.94005808655175</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508735</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.017216722383279</v>
+        <v>0.8603387651510412</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02816777828623</v>
+        <v>1.009845279936436</v>
       </c>
       <c r="J16">
-        <v>1.027371684272969</v>
+        <v>0.9336111993566849</v>
       </c>
       <c r="K16">
-        <v>1.029322214415237</v>
+        <v>0.9555609025498619</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.020722544504028</v>
+        <v>0.8777425844836274</v>
       </c>
       <c r="N16">
-        <v>1.028830669905816</v>
+        <v>0.9349370343464727</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021790635268107</v>
+        <v>0.9078818643940176</v>
       </c>
       <c r="D17">
-        <v>1.026487075063732</v>
+        <v>0.9453267233416768</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.01831678307636</v>
+        <v>0.8693126393570138</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028366307347311</v>
+        <v>1.011916980858064</v>
       </c>
       <c r="J17">
-        <v>1.028069215766415</v>
+        <v>0.9394061576073809</v>
       </c>
       <c r="K17">
-        <v>1.029886406821217</v>
+        <v>0.9603664556933215</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.021745430686745</v>
+        <v>0.8860789244025689</v>
       </c>
       <c r="N17">
-        <v>1.029529191973991</v>
+        <v>0.9407402221025757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022280061078309</v>
+        <v>0.9118075942683993</v>
       </c>
       <c r="D18">
-        <v>1.02685886708149</v>
+        <v>0.948300783544364</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.939383286721568</v>
       </c>
       <c r="F18">
-        <v>1.018957182473067</v>
+        <v>0.8743610255333842</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028481565977865</v>
+        <v>1.013083799508361</v>
       </c>
       <c r="J18">
-        <v>1.028475034502821</v>
+        <v>0.9426728073390399</v>
       </c>
       <c r="K18">
-        <v>1.030214545489426</v>
+        <v>0.9630758597214476</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.022340806760161</v>
+        <v>0.8907690631507167</v>
       </c>
       <c r="N18">
-        <v>1.02993558701955</v>
+        <v>0.9440115108515439</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02244676534472</v>
+        <v>0.9131248705011721</v>
       </c>
       <c r="D19">
-        <v>1.026985487635342</v>
+        <v>0.949299160175458</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814680088</v>
       </c>
       <c r="F19">
-        <v>1.019175332751986</v>
+        <v>0.8760530904671069</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028520775027634</v>
+        <v>1.013475050736083</v>
       </c>
       <c r="J19">
-        <v>1.028613233208225</v>
+        <v>0.9437686835858011</v>
       </c>
       <c r="K19">
-        <v>1.030326273053103</v>
+        <v>0.963984860327036</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493812708</v>
       </c>
       <c r="M19">
-        <v>1.022543603632534</v>
+        <v>0.8923411007641595</v>
       </c>
       <c r="N19">
-        <v>1.030073981982967</v>
+        <v>0.9451089433682741</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021700524559139</v>
+        <v>0.9071493010638387</v>
       </c>
       <c r="D20">
-        <v>1.026418614819261</v>
+        <v>0.9447719648929045</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.018198886528695</v>
+        <v>0.86836961080873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028345063017084</v>
+        <v>1.011699117164404</v>
       </c>
       <c r="J20">
-        <v>1.027994485087126</v>
+        <v>0.9387964637555322</v>
       </c>
       <c r="K20">
-        <v>1.029825972343118</v>
+        <v>0.9598608029507886</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.021635815105121</v>
+        <v>0.8852028433728554</v>
       </c>
       <c r="N20">
-        <v>1.029454355168565</v>
+        <v>0.9401296624155244</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019261915398848</v>
+        <v>0.8860048855279556</v>
       </c>
       <c r="D21">
-        <v>1.024565034702945</v>
+        <v>0.9287915785863557</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148886</v>
       </c>
       <c r="F21">
-        <v>1.015009538148483</v>
+        <v>0.8410041940088693</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02776742700398</v>
+        <v>1.005396979900563</v>
       </c>
       <c r="J21">
-        <v>1.025970556329891</v>
+        <v>0.9211839839656477</v>
       </c>
       <c r="K21">
-        <v>1.028188255600064</v>
+        <v>0.9452604318010328</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981058</v>
       </c>
       <c r="M21">
-        <v>1.018669586974749</v>
+        <v>0.8597867067238983</v>
       </c>
       <c r="N21">
-        <v>1.027427552200347</v>
+        <v>0.9224921708841588</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01771880905706</v>
+        <v>0.8710154184906055</v>
       </c>
       <c r="D22">
-        <v>1.023391276255889</v>
+        <v>0.9175041759136704</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651166</v>
       </c>
       <c r="F22">
-        <v>1.012992519015608</v>
+        <v>0.8214067238085199</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027399279805342</v>
+        <v>1.000918716063172</v>
       </c>
       <c r="J22">
-        <v>1.024688358033244</v>
+        <v>0.9086834787727682</v>
       </c>
       <c r="K22">
-        <v>1.027149792434783</v>
+        <v>0.9349084275808002</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572519</v>
       </c>
       <c r="M22">
-        <v>1.016792804839164</v>
+        <v>0.8415977030015492</v>
       </c>
       <c r="N22">
-        <v>1.026143533035049</v>
+        <v>0.9099739135400772</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018537790713226</v>
+        <v>0.879153398456725</v>
       </c>
       <c r="D23">
-        <v>1.024014311178306</v>
+        <v>0.9236277193976508</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.014062917841221</v>
+        <v>0.832069050117011</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027594917070817</v>
+        <v>1.003350712875934</v>
       </c>
       <c r="J23">
-        <v>1.02536900773766</v>
+        <v>0.9154715556824238</v>
       </c>
       <c r="K23">
-        <v>1.027701144580647</v>
+        <v>0.9405284999917082</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.947539133028532</v>
       </c>
       <c r="M23">
-        <v>1.017788864356329</v>
+        <v>0.8514920627478025</v>
       </c>
       <c r="N23">
-        <v>1.026825149340116</v>
+        <v>0.9167716302975478</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021741244965208</v>
+        <v>0.9074807262108061</v>
       </c>
       <c r="D24">
-        <v>1.026449551825202</v>
+        <v>0.9450229392261447</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401171</v>
       </c>
       <c r="F24">
-        <v>1.018252162754498</v>
+        <v>0.8687962928076741</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028354664083432</v>
+        <v>1.011797687544318</v>
       </c>
       <c r="J24">
-        <v>1.028028255874539</v>
+        <v>0.9390723050248994</v>
       </c>
       <c r="K24">
-        <v>1.029853283001422</v>
+        <v>0.9600895718524969</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442452</v>
       </c>
       <c r="M24">
-        <v>1.021685349546053</v>
+        <v>0.8855992331386655</v>
       </c>
       <c r="N24">
-        <v>1.02948817391437</v>
+        <v>0.9404058954111337</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025417489814463</v>
+        <v>0.9351149646206273</v>
       </c>
       <c r="D25">
-        <v>1.029240474918675</v>
+        <v>0.9659947712123872</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>1.023064864502748</v>
+        <v>0.9041728293375032</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029215172979549</v>
+        <v>1.019981207687962</v>
       </c>
       <c r="J25">
-        <v>1.031073534723454</v>
+        <v>0.9620422677361887</v>
       </c>
       <c r="K25">
-        <v>1.032313762632006</v>
+        <v>0.9791449563316688</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>1.026157962018926</v>
+        <v>0.9184663585011269</v>
       </c>
       <c r="N25">
-        <v>1.032537777408549</v>
+        <v>0.9634084781041646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9543542650395108</v>
+        <v>1.011644847326898</v>
       </c>
       <c r="D2">
-        <v>0.9806391533331105</v>
+        <v>1.027757434749745</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9286134723373393</v>
+        <v>1.021666815093898</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025620951934015</v>
+        <v>1.046383381605507</v>
       </c>
       <c r="J2">
-        <v>0.9779915542533218</v>
+        <v>1.033482755274285</v>
       </c>
       <c r="K2">
-        <v>0.9923749717775131</v>
+        <v>1.038843148387948</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9411658576861839</v>
+        <v>1.032832328924649</v>
       </c>
       <c r="N2">
-        <v>0.9793804144375609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014856438536451</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.034556951643659</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038535744111052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9671214125926437</v>
+        <v>1.015408189125243</v>
       </c>
       <c r="D3">
-        <v>0.9903707202714157</v>
+        <v>1.030218493747663</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9447706366631115</v>
+        <v>1.024695969766638</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029326020757013</v>
+        <v>1.047268963557136</v>
       </c>
       <c r="J3">
-        <v>0.9885503572108629</v>
+        <v>1.035487446220038</v>
       </c>
       <c r="K3">
-        <v>1.001128310474256</v>
+        <v>1.040478789225263</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9561626139387339</v>
+        <v>1.035022319058035</v>
       </c>
       <c r="N3">
-        <v>0.9899542121064132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01554613780107</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036290194321426</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039689619667393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9749232046807318</v>
+        <v>1.017796348361419</v>
       </c>
       <c r="D4">
-        <v>0.9963210168620915</v>
+        <v>1.031783992830628</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9546259145615352</v>
+        <v>1.026626144505489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031571770317808</v>
+        <v>1.04782231726757</v>
       </c>
       <c r="J4">
-        <v>0.9949908820603733</v>
+        <v>1.036755522732429</v>
       </c>
       <c r="K4">
-        <v>1.006464047713539</v>
+        <v>1.04151336951006</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9653046750001223</v>
+        <v>1.036413494803897</v>
       </c>
       <c r="N4">
-        <v>0.996403883239948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015982398660903</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037391222276014</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040422051633453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9781046353888295</v>
+        <v>1.018793673257641</v>
       </c>
       <c r="D5">
-        <v>0.9987479371188941</v>
+        <v>1.032440976592653</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9586415746794313</v>
+        <v>1.02743247898622</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03248300068274</v>
+        <v>1.048053166867476</v>
       </c>
       <c r="J5">
-        <v>0.9976143519988728</v>
+        <v>1.037285980998113</v>
       </c>
       <c r="K5">
-        <v>1.008636516737794</v>
+        <v>1.041947827883722</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.969028302715825</v>
+        <v>1.036994127278808</v>
       </c>
       <c r="N5">
-        <v>0.9990310788066769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016165447056994</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.037850755794783</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04073641332839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9786333365573177</v>
+        <v>1.01896568429738</v>
       </c>
       <c r="D6">
-        <v>0.9991512712712014</v>
+        <v>1.032557183942808</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9593087563674648</v>
+        <v>1.027569704963616</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032634160587675</v>
+        <v>1.048095129885507</v>
       </c>
       <c r="J6">
-        <v>0.9980501599267094</v>
+        <v>1.037379718336904</v>
       </c>
       <c r="K6">
-        <v>1.008997343630841</v>
+        <v>1.042026646549513</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.969646877741146</v>
+        <v>1.037093484787206</v>
       </c>
       <c r="N6">
-        <v>0.9994675056317587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016198470841493</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.037929390887039</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04080088010771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9749660881973893</v>
+        <v>1.017823695025122</v>
       </c>
       <c r="D7">
-        <v>0.9963537285379114</v>
+        <v>1.031809629331789</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9546800540133855</v>
+        <v>1.026642987349281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031584071344317</v>
+        <v>1.047834769590839</v>
       </c>
       <c r="J7">
-        <v>0.995026256070111</v>
+        <v>1.036776274297399</v>
       </c>
       <c r="K7">
-        <v>1.006493344638097</v>
+        <v>1.041535841805319</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9653548830574687</v>
+        <v>1.036427249965142</v>
       </c>
       <c r="N7">
-        <v>0.9964393074848373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015991407032587</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037402108611019</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040458034694479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9587717617133228</v>
+        <v>1.012944209699429</v>
       </c>
       <c r="D8">
-        <v>0.9840053389521728</v>
+        <v>1.02861585346622</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9342086581099502</v>
+        <v>1.022704465108665</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026906775869277</v>
+        <v>1.046698527653461</v>
       </c>
       <c r="J8">
-        <v>0.9816474654651894</v>
+        <v>1.03418347699684</v>
       </c>
       <c r="K8">
-        <v>0.9954064173680197</v>
+        <v>1.039421668979453</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9463602736491339</v>
+        <v>1.03358542770325</v>
       </c>
       <c r="N8">
-        <v>0.9830415174626879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015099953569811</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.035152983549501</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038967707030809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9260488599545229</v>
+        <v>1.003947985461041</v>
       </c>
       <c r="D9">
-        <v>0.9591051974091174</v>
+        <v>1.02274684643826</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923921</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.8926068158526932</v>
+        <v>1.015515939845035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017305224953845</v>
+        <v>1.044526765379923</v>
       </c>
       <c r="J9">
-        <v>0.9545134004437191</v>
+        <v>1.029362096348218</v>
       </c>
       <c r="K9">
-        <v>0.972898544651554</v>
+        <v>1.035481345600273</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832515</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9077210411285557</v>
+        <v>1.028362199453267</v>
       </c>
       <c r="N9">
-        <v>0.9558689189565662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013439121395129</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031019105480284</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036178458789244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9001146605867933</v>
+        <v>0.9978117140900364</v>
       </c>
       <c r="D10">
-        <v>0.9394483646595534</v>
+        <v>1.018783156441312</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547166</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.8592976124180334</v>
+        <v>1.010883804083765</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009605161516645</v>
+        <v>1.043036556036314</v>
       </c>
       <c r="J10">
-        <v>0.9329399007946512</v>
+        <v>1.026112423225262</v>
       </c>
       <c r="K10">
-        <v>0.9550043009740817</v>
+        <v>1.032821359336735</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689268</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.8767754755336981</v>
+        <v>1.025059289877872</v>
       </c>
       <c r="N10">
-        <v>0.934264782463482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012329883377309</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.028457105665828</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034314507859711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8874338860358416</v>
+        <v>0.9961537402156113</v>
       </c>
       <c r="D11">
-        <v>0.9298695212177203</v>
+        <v>1.017837794922819</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016255</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.8428632731560571</v>
+        <v>1.011449213412344</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.005823571382006</v>
+        <v>1.04288703488022</v>
       </c>
       <c r="J11">
-        <v>0.9223751033362548</v>
+        <v>1.025687408130271</v>
       </c>
       <c r="K11">
-        <v>0.9462473564684024</v>
+        <v>1.032430978413787</v>
       </c>
       <c r="L11">
-        <v>0.949155612541657</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.8615128256431658</v>
+        <v>1.026158396744864</v>
       </c>
       <c r="N11">
-        <v>0.9236849817808954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012266824185925</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029767572507806</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034071380489034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8824410524034598</v>
+        <v>0.9958871795528297</v>
       </c>
       <c r="D12">
-        <v>0.926104644099924</v>
+        <v>1.017749835628559</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.8363610831871524</v>
+        <v>1.01252705460691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004332781934058</v>
+        <v>1.043003278463416</v>
       </c>
       <c r="J12">
-        <v>0.9182129394969328</v>
+        <v>1.025866627065863</v>
       </c>
       <c r="K12">
-        <v>0.9427990873720171</v>
+        <v>1.032544698482587</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.8554761126403609</v>
+        <v>1.027418127951324</v>
       </c>
       <c r="N12">
-        <v>0.9195169071915147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012390910438802</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031093018361804</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034151784419191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,81 +1016,105 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8835262090384448</v>
+        <v>0.9966862866552143</v>
       </c>
       <c r="D13">
-        <v>0.9269225815388691</v>
+        <v>1.01833173282426</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.8377758970121182</v>
+        <v>1.014098573104465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004656864786736</v>
+        <v>1.043345035342119</v>
       </c>
       <c r="J13">
-        <v>0.9191176673646173</v>
+        <v>1.026538417190663</v>
       </c>
       <c r="K13">
-        <v>0.9435485463114623</v>
+        <v>1.033073071714511</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964247</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.8567895347576875</v>
+        <v>1.028917416817859</v>
       </c>
       <c r="N13">
-        <v>0.920422919876545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012675218725563</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032556903558458</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034522867604138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.887027428959467</v>
+        <v>0.9977161666884345</v>
       </c>
       <c r="D14">
-        <v>0.9295628851627588</v>
+        <v>1.019035155363881</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.8423346404106665</v>
+        <v>1.015394807413557</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.00570224170031</v>
+        <v>1.043681104990412</v>
       </c>
       <c r="J14">
-        <v>0.9220363190477481</v>
+        <v>1.027220055745128</v>
       </c>
       <c r="K14">
-        <v>0.9459666418874414</v>
+        <v>1.033623318531242</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.8610219904981836</v>
+        <v>1.030048721036856</v>
       </c>
       <c r="N14">
-        <v>0.9233457163798399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01294270397201</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033625360144991</v>
+      </c>
+      <c r="Q14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R14">
+        <v>1.034913336138762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,81 +1122,105 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8891447370155231</v>
+        <v>0.9982158873311742</v>
       </c>
       <c r="D15">
-        <v>0.9311604839545938</v>
+        <v>1.019367083399165</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717476</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.8450870612082956</v>
+        <v>1.015868521302485</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.006334200074136</v>
+        <v>1.043821420773333</v>
       </c>
       <c r="J15">
-        <v>0.9238010088515135</v>
+        <v>1.027511536886704</v>
       </c>
       <c r="K15">
-        <v>0.9474289246080775</v>
+        <v>1.033862827091297</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767194</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>0.8635776947933218</v>
+        <v>1.030426958413349</v>
       </c>
       <c r="N15">
-        <v>0.9251129122455397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013049897552857</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033962014659089</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035088549938324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9009207999980394</v>
+        <v>1.000641646831242</v>
       </c>
       <c r="D16">
-        <v>0.94005808655175</v>
+        <v>1.020920018917794</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017262</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.8603387651510412</v>
+        <v>1.017565400035931</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009845279936436</v>
+        <v>1.044392080477481</v>
       </c>
       <c r="J16">
-        <v>0.9336111993566849</v>
+        <v>1.028753126348603</v>
       </c>
       <c r="K16">
-        <v>0.9555609025498619</v>
+        <v>1.034885957190978</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.8777425844836274</v>
+        <v>1.031588818250981</v>
       </c>
       <c r="N16">
-        <v>0.9349370343464727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01346356208198</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034841459294972</v>
+      </c>
+      <c r="Q16">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R16">
+        <v>1.035815107378517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9078818643940176</v>
+        <v>1.001974290212696</v>
       </c>
       <c r="D17">
-        <v>0.9453267233416768</v>
+        <v>1.021751963842661</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.8693126393570138</v>
+        <v>1.018194726301416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011916980858064</v>
+        <v>1.044656327657555</v>
       </c>
       <c r="J17">
-        <v>0.9394061576073809</v>
+        <v>1.029356810204913</v>
       </c>
       <c r="K17">
-        <v>0.9603664556933215</v>
+        <v>1.035389056637367</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.8860789244025689</v>
+        <v>1.031891083608996</v>
       </c>
       <c r="N17">
-        <v>0.9407402221025757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013643647947758</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034950741032705</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036173406886713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9118075942683993</v>
+        <v>1.002434844105718</v>
       </c>
       <c r="D18">
-        <v>0.948300783544364</v>
+        <v>1.021992517836402</v>
       </c>
       <c r="E18">
-        <v>0.939383286721568</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.8743610255333842</v>
+        <v>1.017790329271248</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.013083799508361</v>
+        <v>1.04465165489575</v>
       </c>
       <c r="J18">
-        <v>0.9426728073390399</v>
+        <v>1.029406180499854</v>
       </c>
       <c r="K18">
-        <v>0.9630758597214476</v>
+        <v>1.035442130901535</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.8907690631507167</v>
+        <v>1.031308885249405</v>
       </c>
       <c r="N18">
-        <v>0.9440115108515439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013614858167924</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034251462590358</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036199295089444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9131248705011721</v>
+        <v>1.002084851788903</v>
       </c>
       <c r="D19">
-        <v>0.949299160175458</v>
+        <v>1.021694059936125</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680088</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.8760530904671069</v>
+        <v>1.016347041716386</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013475050736083</v>
+        <v>1.044401476698684</v>
       </c>
       <c r="J19">
-        <v>0.9437686835858011</v>
+        <v>1.028935158561818</v>
       </c>
       <c r="K19">
-        <v>0.963984860327036</v>
+        <v>1.035085951788804</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812708</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.8923411007641595</v>
+        <v>1.029826382943319</v>
       </c>
       <c r="N19">
-        <v>0.9451089433682741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013395624351427</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032751343174514</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035953862917669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9071493010638387</v>
+        <v>0.9994442240215629</v>
       </c>
       <c r="D20">
-        <v>0.9447719648929045</v>
+        <v>1.019855733060336</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.86836961080873</v>
+        <v>1.012111435582512</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011699117164404</v>
+        <v>1.043452832688304</v>
       </c>
       <c r="J20">
-        <v>0.9387964637555322</v>
+        <v>1.026996586724417</v>
       </c>
       <c r="K20">
-        <v>0.9598608029507886</v>
+        <v>1.033558203071022</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.8852028433728554</v>
+        <v>1.025944611431839</v>
       </c>
       <c r="N20">
-        <v>0.9401296624155244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012637691731433</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029147075118347</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034877615676981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8860048855279556</v>
+        <v>0.9946208386897671</v>
       </c>
       <c r="D21">
-        <v>0.9287915785863557</v>
+        <v>1.016723156255217</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148886</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8410041940088693</v>
+        <v>1.00813116496421</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005396979900563</v>
+        <v>1.042214408209173</v>
       </c>
       <c r="J21">
-        <v>0.9211839839656477</v>
+        <v>1.02434519483426</v>
       </c>
       <c r="K21">
-        <v>0.9452604318010328</v>
+        <v>1.031394481669731</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981058</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.8597867067238983</v>
+        <v>1.02296011019967</v>
       </c>
       <c r="N21">
-        <v>0.9224921708841588</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011717043455706</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026743643615097</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033351015226148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8710154184906055</v>
+        <v>0.9915728659311512</v>
       </c>
       <c r="D22">
-        <v>0.9175041759136704</v>
+        <v>1.014748662496081</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651166</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8214067238085199</v>
+        <v>1.005745183067906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000918716063172</v>
+        <v>1.041432664044639</v>
       </c>
       <c r="J22">
-        <v>0.9086834787727682</v>
+        <v>1.022687442772321</v>
       </c>
       <c r="K22">
-        <v>0.9349084275808002</v>
+        <v>1.030033500220214</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572519</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8415977030015492</v>
+        <v>1.021203679503807</v>
       </c>
       <c r="N22">
-        <v>0.9099739135400772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01114365047642</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.025353517861836</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032375206678888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.879153398456725</v>
+        <v>0.9931814333578255</v>
       </c>
       <c r="D23">
-        <v>0.9236277193976508</v>
+        <v>1.015783221888454</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.832069050117011</v>
+        <v>1.00700811045336</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003350712875934</v>
+        <v>1.041840547205067</v>
       </c>
       <c r="J23">
-        <v>0.9154715556824238</v>
+        <v>1.023557017776485</v>
       </c>
       <c r="K23">
-        <v>0.9405284999917082</v>
+        <v>1.030742637408363</v>
       </c>
       <c r="L23">
-        <v>0.947539133028532</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.8514920627478025</v>
+        <v>1.022132376920463</v>
       </c>
       <c r="N23">
-        <v>0.9167716302975478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011442339598292</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02608853508602</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032866942386588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9074807262108061</v>
+        <v>0.9993983124757881</v>
       </c>
       <c r="D24">
-        <v>0.9450229392261447</v>
+        <v>1.019804400185769</v>
       </c>
       <c r="E24">
-        <v>0.938164042401171</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.8687962928076741</v>
+        <v>1.011903040963531</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011797687544318</v>
+        <v>1.043408352551469</v>
       </c>
       <c r="J24">
-        <v>0.9390723050248994</v>
+        <v>1.026919543556164</v>
       </c>
       <c r="K24">
-        <v>0.9600895718524969</v>
+        <v>1.03349243092233</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442452</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.8855992331386655</v>
+        <v>1.025724301285815</v>
       </c>
       <c r="N24">
-        <v>0.9404058954111337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012600859619527</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.028931354865735</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.0348036697974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9351149646206273</v>
+        <v>1.006343248078973</v>
       </c>
       <c r="D25">
-        <v>0.9659947712123872</v>
+        <v>1.024317490140889</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9041728293375032</v>
+        <v>1.017413901853147</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.019981207687962</v>
+        <v>1.04512219528072</v>
       </c>
       <c r="J25">
-        <v>0.9620422677361887</v>
+        <v>1.030659006266098</v>
       </c>
       <c r="K25">
-        <v>0.9791449563316688</v>
+        <v>1.036549682510183</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9184663585011269</v>
+        <v>1.029747772724426</v>
       </c>
       <c r="N25">
-        <v>0.9634084781041646</v>
+        <v>1.01388912294894</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032115707638856</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036962441744512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011644847326898</v>
+        <v>1.011102294456237</v>
       </c>
       <c r="D2">
-        <v>1.027757434749745</v>
+        <v>1.026791629993104</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.021666815093898</v>
+        <v>1.021431783735467</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046383381605507</v>
+        <v>1.045976832595744</v>
       </c>
       <c r="J2">
-        <v>1.033482755274285</v>
+        <v>1.032955933803485</v>
       </c>
       <c r="K2">
-        <v>1.038843148387948</v>
+        <v>1.037889918644246</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.032832328924649</v>
+        <v>1.032600400899754</v>
       </c>
       <c r="N2">
-        <v>1.014856438536451</v>
+        <v>1.015801990567026</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.034556951643659</v>
+        <v>1.0343733946084</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038535744111052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037870503323706</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022106458434843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015408189125243</v>
+        <v>1.01467160868118</v>
       </c>
       <c r="D3">
-        <v>1.030218493747663</v>
+        <v>1.029031880000818</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.024695969766638</v>
+        <v>1.024377324912047</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047268963557136</v>
+        <v>1.046745829300453</v>
       </c>
       <c r="J3">
-        <v>1.035487446220038</v>
+        <v>1.034770147453118</v>
       </c>
       <c r="K3">
-        <v>1.040478789225263</v>
+        <v>1.03930629418928</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.035022319058035</v>
+        <v>1.034707512425167</v>
       </c>
       <c r="N3">
-        <v>1.01554613780107</v>
+        <v>1.016295754250189</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036290194321426</v>
+        <v>1.036041044468555</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039689619667393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038869062347584</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022388901752252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017796348361419</v>
+        <v>1.016938216524854</v>
       </c>
       <c r="D4">
-        <v>1.031783992830628</v>
+        <v>1.030458336725203</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.026626144505489</v>
+        <v>1.026255241247607</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04782231726757</v>
+        <v>1.04722574358735</v>
       </c>
       <c r="J4">
-        <v>1.036755522732429</v>
+        <v>1.035918345749961</v>
       </c>
       <c r="K4">
-        <v>1.04151336951006</v>
+        <v>1.040202545400567</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.036413494803897</v>
+        <v>1.036046788135938</v>
       </c>
       <c r="N4">
-        <v>1.015982398660903</v>
+        <v>1.016608337551755</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037391222276014</v>
+        <v>1.037100997217325</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040422051633453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039503766163964</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022565127343482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018793673257641</v>
+        <v>1.017885011897663</v>
       </c>
       <c r="D5">
-        <v>1.032440976592653</v>
+        <v>1.031057436128087</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.02743247898622</v>
+        <v>1.027039878907274</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048053166867476</v>
+        <v>1.047425973742326</v>
       </c>
       <c r="J5">
-        <v>1.037285980998113</v>
+        <v>1.036398850234563</v>
       </c>
       <c r="K5">
-        <v>1.041947827883722</v>
+        <v>1.040579359138571</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.036994127278808</v>
+        <v>1.036605850316773</v>
       </c>
       <c r="N5">
-        <v>1.016165447056994</v>
+        <v>1.016739579996299</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.037850755794783</v>
+        <v>1.037543459411464</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04073641332839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039778080780764</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02263920385507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01896568429738</v>
+        <v>1.01804817130114</v>
       </c>
       <c r="D6">
-        <v>1.032557183942808</v>
+        <v>1.031163588246898</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.027569704963616</v>
+        <v>1.027173304602751</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048095129885507</v>
+        <v>1.047462567747574</v>
       </c>
       <c r="J6">
-        <v>1.037379718336904</v>
+        <v>1.036483834608424</v>
       </c>
       <c r="K6">
-        <v>1.042026646549513</v>
+        <v>1.040648163207384</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.037093484787206</v>
+        <v>1.036701429299123</v>
       </c>
       <c r="N6">
-        <v>1.016198470841493</v>
+        <v>1.01676329233169</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.037929390887039</v>
+        <v>1.037619104075552</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04080088010771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039836337056135</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022653415168341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017823695025122</v>
+        <v>1.01697388940566</v>
       </c>
       <c r="D7">
-        <v>1.031809629331789</v>
+        <v>1.030489610138461</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.026642987349281</v>
+        <v>1.02627568469071</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047834769590839</v>
+        <v>1.047242139723355</v>
       </c>
       <c r="J7">
-        <v>1.036776274297399</v>
+        <v>1.035947210924588</v>
       </c>
       <c r="K7">
-        <v>1.041535841805319</v>
+        <v>1.040230585613764</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.036427249965142</v>
+        <v>1.036064101584447</v>
       </c>
       <c r="N7">
-        <v>1.015991407032587</v>
+        <v>1.016643816996498</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037402108611019</v>
+        <v>1.037114699715873</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040458034694479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039545688876731</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022573491093643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012944209699429</v>
+        <v>1.012365139497291</v>
       </c>
       <c r="D8">
-        <v>1.02861585346622</v>
+        <v>1.027596445007348</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.022704465108665</v>
+        <v>1.022453731892971</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046698527653461</v>
+        <v>1.046266938663584</v>
       </c>
       <c r="J8">
-        <v>1.03418347699684</v>
+        <v>1.033620636128547</v>
       </c>
       <c r="K8">
-        <v>1.039421668979453</v>
+        <v>1.038415142496105</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.03358542770325</v>
+        <v>1.033337905881609</v>
       </c>
       <c r="N8">
-        <v>1.015099953569811</v>
+        <v>1.016064560024274</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.035152983549501</v>
+        <v>1.03495708512889</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038967707030809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038267050410043</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022216918288993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003947985461041</v>
+        <v>1.003848159449843</v>
       </c>
       <c r="D9">
-        <v>1.02274684643826</v>
+        <v>1.022266014113418</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.015515939845035</v>
+        <v>1.015472574816869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044526765379923</v>
+        <v>1.044380072431505</v>
       </c>
       <c r="J9">
-        <v>1.029362096348218</v>
+        <v>1.029265757293763</v>
       </c>
       <c r="K9">
-        <v>1.035481345600273</v>
+        <v>1.035007882376382</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.028362199453267</v>
+        <v>1.028319510810079</v>
       </c>
       <c r="N9">
-        <v>1.013439121395129</v>
+        <v>1.014888178994636</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031019105480284</v>
+        <v>1.030985319828384</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036178458789244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035854437407643</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021521776666451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9978117140900364</v>
+        <v>0.9980888539212951</v>
       </c>
       <c r="D10">
-        <v>1.018783156441312</v>
+        <v>1.018704542911766</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.010883804083765</v>
+        <v>1.011004345487217</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043036556036314</v>
+        <v>1.043106581613526</v>
       </c>
       <c r="J10">
-        <v>1.026112423225262</v>
+        <v>1.026378503295453</v>
       </c>
       <c r="K10">
-        <v>1.032821359336735</v>
+        <v>1.032744098471032</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.025059289877872</v>
+        <v>1.025177715504656</v>
       </c>
       <c r="N10">
-        <v>1.012329883377309</v>
+        <v>1.014228664959595</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.028457105665828</v>
+        <v>1.028550827216879</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034314507859711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034272307864551</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021059829842943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9961537402156113</v>
+        <v>0.9965593647549006</v>
       </c>
       <c r="D11">
-        <v>1.017837794922819</v>
+        <v>1.01787501285809</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.011449213412344</v>
+        <v>1.011624354961555</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04288703488022</v>
+        <v>1.043020244594366</v>
       </c>
       <c r="J11">
-        <v>1.025687408130271</v>
+        <v>1.026075981991524</v>
       </c>
       <c r="K11">
-        <v>1.032430978413787</v>
+        <v>1.032467526113848</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.026158396744864</v>
+        <v>1.026330332751389</v>
       </c>
       <c r="N11">
-        <v>1.012266824185925</v>
+        <v>1.014434908045667</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029767572507806</v>
+        <v>1.029903571917082</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034071380489034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034112855157428</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021072061102917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9958871795528297</v>
+        <v>0.996306215165</v>
       </c>
       <c r="D12">
-        <v>1.017749835628559</v>
+        <v>1.017792295432599</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.01252705460691</v>
+        <v>1.012707011644765</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043003278463416</v>
+        <v>1.043137177416386</v>
       </c>
       <c r="J12">
-        <v>1.025866627065863</v>
+        <v>1.026267729492187</v>
       </c>
       <c r="K12">
-        <v>1.032544698482587</v>
+        <v>1.032586381389688</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.027418127951324</v>
+        <v>1.027594748418159</v>
       </c>
       <c r="N12">
-        <v>1.012390910438802</v>
+        <v>1.014631176257779</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031093018361804</v>
+        <v>1.03123267505841</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034151784419191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034196888083219</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02114329359739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9966862866552143</v>
+        <v>0.997015571783686</v>
       </c>
       <c r="D13">
-        <v>1.01833173282426</v>
+        <v>1.018283399784527</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.014098573104465</v>
+        <v>1.014239371053078</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043345035342119</v>
+        <v>1.0434244768874</v>
       </c>
       <c r="J13">
-        <v>1.026538417190663</v>
+        <v>1.026853691998322</v>
       </c>
       <c r="K13">
-        <v>1.033073071714511</v>
+        <v>1.033025618870523</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.028917416817859</v>
+        <v>1.029055623347849</v>
       </c>
       <c r="N13">
-        <v>1.012675218725563</v>
+        <v>1.014801702169347</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032556903558458</v>
+        <v>1.032666157974282</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034522867604138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034504700667668</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021268988116133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9977161666884345</v>
+        <v>0.9979383785204329</v>
       </c>
       <c r="D14">
-        <v>1.019035155363881</v>
+        <v>1.018882291283506</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.015394807413557</v>
+        <v>1.015489585368268</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043681104990412</v>
+        <v>1.043699206758287</v>
       </c>
       <c r="J14">
-        <v>1.027220055745128</v>
+        <v>1.027432952607527</v>
       </c>
       <c r="K14">
-        <v>1.033623318531242</v>
+        <v>1.033473203137857</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.030048721036856</v>
+        <v>1.030141779376789</v>
       </c>
       <c r="N14">
-        <v>1.01294270397201</v>
+        <v>1.014908427595124</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033625360144991</v>
+        <v>1.033698914228984</v>
       </c>
       <c r="Q14">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034913336138762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034822715182736</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021380589073358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,105 +1245,123 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9982158873311742</v>
+        <v>0.9983894862074814</v>
       </c>
       <c r="D15">
-        <v>1.019367083399165</v>
+        <v>1.019167474267547</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.015868521302485</v>
+        <v>1.015942525873352</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043821420773333</v>
+        <v>1.043812574180456</v>
       </c>
       <c r="J15">
-        <v>1.027511536886704</v>
+        <v>1.027677922800237</v>
       </c>
       <c r="K15">
-        <v>1.033862827091297</v>
+        <v>1.033666779876101</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.030426958413349</v>
+        <v>1.030499631030102</v>
       </c>
       <c r="N15">
-        <v>1.013049897552857</v>
+        <v>1.014937396584081</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033962014659089</v>
+        <v>1.03401945418347</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035088549938324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034966021526944</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021424207799294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000641646831242</v>
+        <v>1.000607100473026</v>
       </c>
       <c r="D16">
-        <v>1.020920018917794</v>
+        <v>1.020520335974284</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.017565400035931</v>
+        <v>1.017550669661828</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044392080477481</v>
+        <v>1.044271188707079</v>
       </c>
       <c r="J16">
-        <v>1.028753126348603</v>
+        <v>1.028719943834808</v>
       </c>
       <c r="K16">
-        <v>1.034885957190978</v>
+        <v>1.03449309702544</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.031588818250981</v>
+        <v>1.031574341356019</v>
       </c>
       <c r="N16">
-        <v>1.01346356208198</v>
+        <v>1.015003368825484</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034841459294972</v>
+        <v>1.034830016609778</v>
       </c>
       <c r="Q16">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035815107378517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03555372368285</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021584746651872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001974290212696</v>
+        <v>1.001846458452483</v>
       </c>
       <c r="D17">
-        <v>1.021751963842661</v>
+        <v>1.021260437459848</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.018194726301416</v>
+        <v>1.018140139415788</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044656327657555</v>
+        <v>1.044485907784638</v>
       </c>
       <c r="J17">
-        <v>1.029356810204913</v>
+        <v>1.029233864443101</v>
       </c>
       <c r="K17">
-        <v>1.035389056637367</v>
+        <v>1.034905687559783</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.031891083608996</v>
+        <v>1.031837410313146</v>
       </c>
       <c r="N17">
-        <v>1.013643647947758</v>
+        <v>1.015029691852316</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034950741032705</v>
+        <v>1.034908312862172</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036173406886713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035848277818709</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021652305612951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002434844105718</v>
+        <v>1.002293854276818</v>
       </c>
       <c r="D18">
-        <v>1.021992517836402</v>
+        <v>1.02148813569509</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.017790329271248</v>
+        <v>1.017729931655768</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04465165489575</v>
+        <v>1.044476784487861</v>
       </c>
       <c r="J18">
-        <v>1.029406180499854</v>
+        <v>1.029270481778587</v>
       </c>
       <c r="K18">
-        <v>1.035442130901535</v>
+        <v>1.034945985368837</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.031308885249405</v>
+        <v>1.031249483883083</v>
       </c>
       <c r="N18">
-        <v>1.013614858167924</v>
+        <v>1.014967210514742</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034251462590358</v>
+        <v>1.034204496567547</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036199295089444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035863998633784</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02162997376618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002084851788903</v>
+        <v>1.001996056865434</v>
       </c>
       <c r="D19">
-        <v>1.021694059936125</v>
+        <v>1.021243816641625</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.016347041716386</v>
+        <v>1.016308811990401</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044401476698684</v>
+        <v>1.044259610230291</v>
       </c>
       <c r="J19">
-        <v>1.028935158561818</v>
+        <v>1.028849679499876</v>
       </c>
       <c r="K19">
-        <v>1.035085951788804</v>
+        <v>1.034643026774065</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.029826382943319</v>
+        <v>1.029788782718397</v>
       </c>
       <c r="N19">
-        <v>1.013395624351427</v>
+        <v>1.014802183946528</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032751343174514</v>
+        <v>1.032721604500343</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035953862917669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035656822539591</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021526205072485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9994442240215629</v>
+        <v>0.9995897807125059</v>
       </c>
       <c r="D20">
-        <v>1.019855733060336</v>
+        <v>1.019646879843721</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.012111435582512</v>
+        <v>1.012174722241342</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043452832688304</v>
+        <v>1.043449240669432</v>
       </c>
       <c r="J20">
-        <v>1.026996586724417</v>
+        <v>1.027136524788899</v>
       </c>
       <c r="K20">
-        <v>1.033558203071022</v>
+        <v>1.033352841243084</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.025944611431839</v>
+        <v>1.02600681949002</v>
       </c>
       <c r="N20">
-        <v>1.012637691731433</v>
+        <v>1.014336958983565</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029147075118347</v>
+        <v>1.029196306917319</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034877615676981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034748937558608</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021187587192648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9946208386897671</v>
+        <v>0.995218050399331</v>
       </c>
       <c r="D21">
-        <v>1.016723156255217</v>
+        <v>1.016948846162555</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.00813116496421</v>
+        <v>1.008391465677877</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042214408209173</v>
+        <v>1.042460781245038</v>
       </c>
       <c r="J21">
-        <v>1.02434519483426</v>
+        <v>1.02491707249653</v>
       </c>
       <c r="K21">
-        <v>1.031394481669731</v>
+        <v>1.031616077996652</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.02296011019967</v>
+        <v>1.023215584255358</v>
       </c>
       <c r="N21">
-        <v>1.011717043455706</v>
+        <v>1.014154834197255</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026743643615097</v>
+        <v>1.026945838129071</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033351015226148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033524543771854</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020828807977918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9915728659311512</v>
+        <v>0.9924566082093433</v>
       </c>
       <c r="D22">
-        <v>1.014748662496081</v>
+        <v>1.015249635600855</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.005745183067906</v>
+        <v>1.006130782534694</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041432664044639</v>
+        <v>1.041837561480199</v>
       </c>
       <c r="J22">
-        <v>1.022687442772321</v>
+        <v>1.023531496260806</v>
       </c>
       <c r="K22">
-        <v>1.030033500220214</v>
+        <v>1.030524928895596</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.021203679503807</v>
+        <v>1.02158175799195</v>
       </c>
       <c r="N22">
-        <v>1.01114365047642</v>
+        <v>1.014041027366869</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.025353517861836</v>
+        <v>1.025652748035842</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032375206678888</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032738224379446</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020603323895624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9931814333578255</v>
+        <v>0.9938966741751702</v>
       </c>
       <c r="D23">
-        <v>1.015783221888454</v>
+        <v>1.016125775255848</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.00700811045336</v>
+        <v>1.007320011319778</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041840547205067</v>
+        <v>1.042153020628634</v>
       </c>
       <c r="J23">
-        <v>1.023557017776485</v>
+        <v>1.024241085648564</v>
       </c>
       <c r="K23">
-        <v>1.030742637408363</v>
+        <v>1.031078830807869</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.022132376920463</v>
+        <v>1.022438353984515</v>
       </c>
       <c r="N23">
-        <v>1.011442339598292</v>
+        <v>1.01405248675572</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02608853508602</v>
+        <v>1.026330700346103</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032866942386588</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03311926053103</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020714615197321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9993983124757881</v>
+        <v>0.9995510376107238</v>
       </c>
       <c r="D24">
-        <v>1.019804400185769</v>
+        <v>1.019602897026807</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.011903040963531</v>
+        <v>1.011969494438166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043408352551469</v>
+        <v>1.043409434896212</v>
       </c>
       <c r="J24">
-        <v>1.026919543556164</v>
+        <v>1.027066380933154</v>
       </c>
       <c r="K24">
-        <v>1.03349243092233</v>
+        <v>1.033294292368216</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.025724301285815</v>
+        <v>1.025789623045514</v>
       </c>
       <c r="N24">
-        <v>1.012600859619527</v>
+        <v>1.014306735137045</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028931354865735</v>
+        <v>1.028983053504476</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0348036697974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034677429291539</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021166714397372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006343248078973</v>
+        <v>1.006100675675384</v>
       </c>
       <c r="D25">
-        <v>1.024317490140889</v>
+        <v>1.023682253081962</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.017413901853147</v>
+        <v>1.017308617012663</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04512219528072</v>
+        <v>1.044892203889764</v>
       </c>
       <c r="J25">
-        <v>1.030659006266098</v>
+        <v>1.030424457696722</v>
       </c>
       <c r="K25">
-        <v>1.036549682510183</v>
+        <v>1.035923728744936</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.029747772724426</v>
+        <v>1.029644052137901</v>
       </c>
       <c r="N25">
-        <v>1.01388912294894</v>
+        <v>1.015172487905969</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032115707638856</v>
+        <v>1.032033618774427</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036962441744512</v>
+        <v>1.036533402616123</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021712776382462</v>
       </c>
     </row>
   </sheetData>
